--- a/rellenar_filled.xlsx
+++ b/rellenar_filled.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\starFactory\starFactory-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793BB4CB-3BFC-4BC0-BCE7-AB1E91CF9C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE32B41C-1476-4C31-B408-9E206FC59E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="964">
   <si>
     <t>ABRIL</t>
   </si>
@@ -2914,6 +2914,9 @@
   </si>
   <si>
     <t>etiquetas</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -3290,5280 +3293,6399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:G377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" customWidth="1"/>
-    <col min="4" max="4" width="108.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="108.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>513</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>173</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>514</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>174</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>515</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>175</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>516</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>176</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>517</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>177</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>518</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>178</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>519</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>180</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>521</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>181</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>516</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>182</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>522</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>183</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>523</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>184</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>524</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>185</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>948</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>186</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>525</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1015</v>
+      </c>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>187</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>521</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1016</v>
+      </c>
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>188</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>521</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1017</v>
+      </c>
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>189</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>526</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1018</v>
+      </c>
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>190</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>516</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1019</v>
+      </c>
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>191</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>521</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1020</v>
+      </c>
+      <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>192</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>513</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1021</v>
+      </c>
+      <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>193</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>527</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1022</v>
+      </c>
+      <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>184</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>523</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1023</v>
+      </c>
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>194</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>523</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>618</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1024</v>
+      </c>
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>195</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>526</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1025</v>
+      </c>
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>196</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>528</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1026</v>
+      </c>
+      <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>197</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>516</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>621</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1027</v>
+      </c>
+      <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>198</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>529</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>622</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1028</v>
+      </c>
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>199</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1029</v>
+      </c>
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>200</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>513</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1030</v>
+      </c>
+      <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>201</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>949</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1031</v>
+      </c>
+      <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>202</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>526</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1032</v>
+      </c>
+      <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>203</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>517</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1033</v>
+      </c>
+      <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>204</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>530</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1034</v>
+      </c>
+      <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>205</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>531</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1035</v>
+      </c>
+      <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>206</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>950</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1036</v>
+      </c>
+      <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>207</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>529</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1037</v>
+      </c>
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>208</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>517</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1038</v>
+      </c>
+      <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>209</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>532</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1039</v>
+      </c>
+      <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>210</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>533</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1040</v>
+      </c>
+      <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>211</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>523</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1041</v>
+      </c>
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>212</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>534</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1042</v>
+      </c>
+      <c r="B44" t="s">
         <v>12</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>213</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>535</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1043</v>
+      </c>
+      <c r="B45" t="s">
         <v>13</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>948</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1044</v>
+      </c>
+      <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>215</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>514</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>637</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1045</v>
+      </c>
+      <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>518</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1046</v>
+      </c>
+      <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>217</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>536</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1047</v>
+      </c>
+      <c r="B49" t="s">
         <v>16</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>218</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>537</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1048</v>
+      </c>
+      <c r="B50" t="s">
         <v>16</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>219</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>538</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1049</v>
+      </c>
+      <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>220</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1050</v>
+      </c>
+      <c r="B52" t="s">
         <v>16</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>221</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>514</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1051</v>
+      </c>
+      <c r="B53" t="s">
         <v>16</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>222</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>516</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1052</v>
+      </c>
+      <c r="B54" t="s">
         <v>17</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>223</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>540</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1053</v>
+      </c>
+      <c r="B55" t="s">
         <v>18</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>224</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>513</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1054</v>
+      </c>
+      <c r="B56" t="s">
         <v>19</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>225</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>541</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1055</v>
+      </c>
+      <c r="B57" t="s">
         <v>19</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>226</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>542</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1056</v>
+      </c>
+      <c r="B58" t="s">
         <v>20</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>227</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>522</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1057</v>
+      </c>
+      <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>228</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>513</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1058</v>
+      </c>
+      <c r="B60" t="s">
         <v>22</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>229</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>534</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1059</v>
+      </c>
+      <c r="B61" t="s">
         <v>22</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>230</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>543</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1060</v>
+      </c>
+      <c r="B62" t="s">
         <v>23</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>231</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>544</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>652</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1061</v>
+      </c>
+      <c r="B63" t="s">
         <v>23</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>232</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>517</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>652</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1062</v>
+      </c>
+      <c r="B64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>233</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>531</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>653</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1063</v>
+      </c>
+      <c r="B65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>234</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>531</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1064</v>
+      </c>
+      <c r="B66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>235</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>533</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1065</v>
+      </c>
+      <c r="B67" t="s">
         <v>26</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>236</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>545</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1066</v>
+      </c>
+      <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>237</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>523</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1067</v>
+      </c>
+      <c r="B69" t="s">
         <v>27</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>238</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>546</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1068</v>
+      </c>
+      <c r="B70" t="s">
         <v>27</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>239</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>545</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1069</v>
+      </c>
+      <c r="B71" t="s">
         <v>28</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>240</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>547</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1070</v>
+      </c>
+      <c r="B72" t="s">
         <v>29</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>241</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>523</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1071</v>
+      </c>
+      <c r="B73" t="s">
         <v>30</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>242</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>538</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>661</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1072</v>
+      </c>
+      <c r="B74" t="s">
         <v>31</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>243</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>548</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1073</v>
+      </c>
+      <c r="B75" t="s">
         <v>31</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>244</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>549</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1074</v>
+      </c>
+      <c r="B76" t="s">
         <v>31</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>245</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>550</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1075</v>
+      </c>
+      <c r="B77" t="s">
         <v>32</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>246</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>530</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1076</v>
+      </c>
+      <c r="B78" t="s">
         <v>32</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>247</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>529</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1077</v>
+      </c>
+      <c r="B79" t="s">
         <v>32</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>248</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>523</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1078</v>
+      </c>
+      <c r="B80" t="s">
         <v>33</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>249</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>533</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1079</v>
+      </c>
+      <c r="B81" t="s">
         <v>34</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>250</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>513</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1080</v>
+      </c>
+      <c r="B82" t="s">
         <v>34</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>251</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>951</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1081</v>
+      </c>
+      <c r="B83" t="s">
         <v>34</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>252</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>542</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1082</v>
+      </c>
+      <c r="B84" t="s">
         <v>34</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>253</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>551</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1083</v>
+      </c>
+      <c r="B85" t="s">
         <v>35</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>254</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>552</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1084</v>
+      </c>
+      <c r="B86" t="s">
         <v>35</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>255</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>534</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1085</v>
+      </c>
+      <c r="B87" t="s">
         <v>35</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>256</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>530</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1086</v>
+      </c>
+      <c r="B88" t="s">
         <v>36</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>254</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>521</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1087</v>
+      </c>
+      <c r="B89" t="s">
         <v>37</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>257</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>948</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1088</v>
+      </c>
+      <c r="B90" t="s">
         <v>37</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>258</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>553</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1089</v>
+      </c>
+      <c r="B91" t="s">
         <v>37</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>259</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>554</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>679</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1090</v>
+      </c>
+      <c r="B92" t="s">
         <v>37</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>260</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>513</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1091</v>
+      </c>
+      <c r="B93" t="s">
         <v>37</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>261</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>517</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>681</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1092</v>
+      </c>
+      <c r="B94" t="s">
         <v>37</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>262</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>952</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1093</v>
+      </c>
+      <c r="B95" t="s">
         <v>37</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>263</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>541</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1094</v>
+      </c>
+      <c r="B96" t="s">
         <v>37</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>264</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1095</v>
+      </c>
+      <c r="B97" t="s">
         <v>37</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>265</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>556</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1096</v>
+      </c>
+      <c r="B98" t="s">
         <v>37</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>266</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>557</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1097</v>
+      </c>
+      <c r="B99" t="s">
         <v>37</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>267</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>540</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1098</v>
+      </c>
+      <c r="B100" t="s">
         <v>38</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>268</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>530</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1099</v>
+      </c>
+      <c r="B101" t="s">
         <v>39</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>269</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>517</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1100</v>
+      </c>
+      <c r="B102" t="s">
         <v>39</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>270</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>514</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1101</v>
+      </c>
+      <c r="B103" t="s">
         <v>39</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>271</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1102</v>
+      </c>
+      <c r="B104" t="s">
         <v>40</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>272</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>533</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1103</v>
+      </c>
+      <c r="B105" t="s">
         <v>41</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>273</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>516</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1104</v>
+      </c>
+      <c r="B106" t="s">
         <v>42</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>274</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>517</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1105</v>
+      </c>
+      <c r="B107" t="s">
         <v>43</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>275</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>513</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1106</v>
+      </c>
+      <c r="B108" t="s">
         <v>44</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>276</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>558</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1107</v>
+      </c>
+      <c r="B109" t="s">
         <v>45</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>277</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>559</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>694</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1108</v>
+      </c>
+      <c r="B110" t="s">
         <v>45</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>278</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>560</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1109</v>
+      </c>
+      <c r="B111" t="s">
         <v>45</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>279</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>518</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1110</v>
+      </c>
+      <c r="B112" t="s">
         <v>45</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>280</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>517</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1111</v>
+      </c>
+      <c r="B113" t="s">
         <v>45</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>281</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>513</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1112</v>
+      </c>
+      <c r="B114" t="s">
         <v>45</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>282</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>542</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1113</v>
+      </c>
+      <c r="B115" t="s">
         <v>46</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>283</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1114</v>
+      </c>
+      <c r="B116" t="s">
         <v>47</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>284</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>513</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1115</v>
+      </c>
+      <c r="B117" t="s">
         <v>47</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>285</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>523</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1116</v>
+      </c>
+      <c r="B118" t="s">
         <v>47</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>286</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>540</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1117</v>
+      </c>
+      <c r="B119" t="s">
         <v>47</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>287</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>514</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>703</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1118</v>
+      </c>
+      <c r="B120" t="s">
         <v>47</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>288</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>561</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1119</v>
+      </c>
+      <c r="B121" t="s">
         <v>47</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>289</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>562</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1120</v>
+      </c>
+      <c r="B122" t="s">
         <v>48</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>290</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>544</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>706</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1121</v>
+      </c>
+      <c r="B123" t="s">
         <v>49</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>291</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>516</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1122</v>
+      </c>
+      <c r="B124" t="s">
         <v>49</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>292</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>533</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1123</v>
+      </c>
+      <c r="B125" t="s">
         <v>49</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>293</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>521</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1124</v>
+      </c>
+      <c r="B126" t="s">
         <v>50</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>294</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>533</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1125</v>
+      </c>
+      <c r="B127" t="s">
         <v>51</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>295</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>949</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1126</v>
+      </c>
+      <c r="B128" t="s">
         <v>52</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>296</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1127</v>
+      </c>
+      <c r="B129" t="s">
         <v>53</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>297</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>529</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1128</v>
+      </c>
+      <c r="B130" t="s">
         <v>53</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>298</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>542</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1129</v>
+      </c>
+      <c r="B131" t="s">
         <v>54</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>299</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>521</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1130</v>
+      </c>
+      <c r="B132" t="s">
         <v>54</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>300</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>536</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1131</v>
+      </c>
+      <c r="B133" t="s">
         <v>54</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>301</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>530</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1132</v>
+      </c>
+      <c r="B134" t="s">
         <v>54</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>302</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>542</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1133</v>
+      </c>
+      <c r="B135" t="s">
         <v>55</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>303</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>563</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1134</v>
+      </c>
+      <c r="B136" t="s">
         <v>56</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>304</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>513</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1135</v>
+      </c>
+      <c r="B137" t="s">
         <v>57</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>305</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>541</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1136</v>
+      </c>
+      <c r="B138" t="s">
         <v>58</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>306</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>521</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1137</v>
+      </c>
+      <c r="B139" t="s">
         <v>58</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>307</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>529</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1138</v>
+      </c>
+      <c r="B140" t="s">
         <v>59</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>308</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>513</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1139</v>
+      </c>
+      <c r="B141" t="s">
         <v>60</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>309</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>528</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>724</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1140</v>
+      </c>
+      <c r="B142" t="s">
         <v>61</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1141</v>
+      </c>
+      <c r="B143" t="s">
         <v>62</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>310</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>523</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>725</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1142</v>
+      </c>
+      <c r="B144" t="s">
         <v>63</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>311</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>514</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>1143</v>
+      </c>
+      <c r="B145" t="s">
         <v>63</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>312</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>542</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>727</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1144</v>
+      </c>
+      <c r="B146" t="s">
         <v>63</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>313</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>529</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1145</v>
+      </c>
+      <c r="B147" t="s">
         <v>63</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>314</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>533</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>1146</v>
+      </c>
+      <c r="B148" t="s">
         <v>64</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>315</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>564</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1147</v>
+      </c>
+      <c r="B149" t="s">
         <v>65</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>316</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>532</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1148</v>
+      </c>
+      <c r="B150" t="s">
         <v>66</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>317</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>529</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1149</v>
+      </c>
+      <c r="B151" t="s">
         <v>67</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>318</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>534</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>1150</v>
+      </c>
+      <c r="B152" t="s">
         <v>68</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>319</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>1151</v>
+      </c>
+      <c r="B153" t="s">
         <v>69</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>320</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1152</v>
+      </c>
+      <c r="B154" t="s">
         <v>70</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>309</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>520</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1153</v>
+      </c>
+      <c r="B155" t="s">
         <v>70</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>321</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1154</v>
+      </c>
+      <c r="B156" t="s">
         <v>71</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>322</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>521</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>1155</v>
+      </c>
+      <c r="B157" t="s">
         <v>72</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>323</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>566</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1156</v>
+      </c>
+      <c r="B158" t="s">
         <v>72</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>324</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>533</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1157</v>
+      </c>
+      <c r="B159" t="s">
         <v>73</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>325</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1158</v>
+      </c>
+      <c r="B160" t="s">
         <v>74</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>326</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>541</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>1159</v>
+      </c>
+      <c r="B161" t="s">
         <v>75</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>327</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>567</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>739</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>1160</v>
+      </c>
+      <c r="B162" t="s">
         <v>75</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>328</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>516</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>1161</v>
+      </c>
+      <c r="B163" t="s">
         <v>76</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>329</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>542</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>1162</v>
+      </c>
+      <c r="B164" t="s">
         <v>77</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>330</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>523</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>1163</v>
+      </c>
+      <c r="B165" t="s">
         <v>77</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>331</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>538</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1164</v>
+      </c>
+      <c r="B166" t="s">
         <v>78</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>332</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>534</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>1165</v>
+      </c>
+      <c r="B167" t="s">
         <v>79</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>333</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>534</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1166</v>
+      </c>
+      <c r="B168" t="s">
         <v>80</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>334</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>948</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1167</v>
+      </c>
+      <c r="B169" t="s">
         <v>81</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>335</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>551</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1168</v>
+      </c>
+      <c r="B170" t="s">
         <v>82</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>336</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1169</v>
+      </c>
+      <c r="B171" t="s">
         <v>83</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>337</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>541</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1170</v>
+      </c>
+      <c r="B172" t="s">
         <v>84</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>338</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>1171</v>
+      </c>
+      <c r="B173" t="s">
         <v>84</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>339</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>541</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1172</v>
+      </c>
+      <c r="B174" t="s">
         <v>85</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>340</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>541</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1173</v>
+      </c>
+      <c r="B175" t="s">
         <v>86</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>341</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>541</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>1174</v>
+      </c>
+      <c r="B176" t="s">
         <v>86</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>342</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>532</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>1175</v>
+      </c>
+      <c r="B177" t="s">
         <v>87</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>343</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>562</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1176</v>
+      </c>
+      <c r="B178" t="s">
         <v>88</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>344</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1177</v>
+      </c>
+      <c r="B179" t="s">
         <v>88</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>345</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>568</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>1178</v>
+      </c>
+      <c r="B180" t="s">
         <v>88</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>346</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>521</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>1179</v>
+      </c>
+      <c r="B181" t="s">
         <v>88</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>347</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>538</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1180</v>
+      </c>
+      <c r="B182" t="s">
         <v>88</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>348</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>523</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>1181</v>
+      </c>
+      <c r="B183" t="s">
         <v>88</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>349</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>521</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1182</v>
+      </c>
+      <c r="B184" t="s">
         <v>88</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>350</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>538</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1183</v>
+      </c>
+      <c r="B185" t="s">
         <v>88</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>351</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>523</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>759</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1184</v>
+      </c>
+      <c r="B186" t="s">
         <v>88</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>352</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>538</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1185</v>
+      </c>
+      <c r="B187" t="s">
         <v>88</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>353</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>552</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1186</v>
+      </c>
+      <c r="B188" t="s">
         <v>89</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>354</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>529</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1187</v>
+      </c>
+      <c r="B189" t="s">
         <v>90</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>355</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>536</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1188</v>
+      </c>
+      <c r="B190" t="s">
         <v>91</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>356</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>532</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1189</v>
+      </c>
+      <c r="B191" t="s">
         <v>92</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>357</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>513</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1190</v>
+      </c>
+      <c r="B192" t="s">
         <v>93</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>358</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>533</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1191</v>
+      </c>
+      <c r="B193" t="s">
         <v>93</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>359</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>544</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>766</v>
       </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1192</v>
+      </c>
+      <c r="B194" t="s">
         <v>94</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>360</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>569</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1193</v>
+      </c>
+      <c r="B195" t="s">
         <v>94</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>361</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>534</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1194</v>
+      </c>
+      <c r="B196" t="s">
         <v>94</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>362</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>516</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1195</v>
+      </c>
+      <c r="B197" t="s">
         <v>94</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>363</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>570</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1196</v>
+      </c>
+      <c r="B198" t="s">
         <v>94</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>182</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>516</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>1197</v>
+      </c>
+      <c r="B199" t="s">
         <v>95</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>364</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>530</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>1198</v>
+      </c>
+      <c r="B200" t="s">
         <v>96</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>365</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>533</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1199</v>
+      </c>
+      <c r="B201" t="s">
         <v>97</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>366</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>571</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>773</v>
       </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1200</v>
+      </c>
+      <c r="B202" t="s">
         <v>98</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>367</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>1201</v>
+      </c>
+      <c r="B203" t="s">
         <v>98</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>368</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>514</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>1202</v>
+      </c>
+      <c r="B204" t="s">
         <v>98</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>369</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>562</v>
       </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1203</v>
+      </c>
+      <c r="B205" t="s">
         <v>99</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>370</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>538</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1204</v>
+      </c>
+      <c r="B206" t="s">
         <v>100</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>371</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>516</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1205</v>
+      </c>
+      <c r="B207" t="s">
         <v>100</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>372</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>530</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1206</v>
+      </c>
+      <c r="B208" t="s">
         <v>101</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>373</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>541</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>1207</v>
+      </c>
+      <c r="B209" t="s">
         <v>102</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>374</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>531</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1208</v>
+      </c>
+      <c r="B210" t="s">
         <v>102</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>360</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>569</v>
       </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>1209</v>
+      </c>
+      <c r="B211" t="s">
         <v>102</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>361</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>534</v>
       </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1210</v>
+      </c>
+      <c r="B212" t="s">
         <v>102</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>375</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>514</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1211</v>
+      </c>
+      <c r="B213" t="s">
         <v>102</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>376</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>523</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1212</v>
+      </c>
+      <c r="B214" t="s">
         <v>102</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>377</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>516</v>
       </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1213</v>
+      </c>
+      <c r="B215" t="s">
         <v>102</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>378</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>521</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1214</v>
+      </c>
+      <c r="B216" t="s">
         <v>102</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>379</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>529</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1215</v>
+      </c>
+      <c r="B217" t="s">
         <v>102</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>380</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1216</v>
+      </c>
+      <c r="B218" t="s">
         <v>102</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>381</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>953</v>
       </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>1217</v>
+      </c>
+      <c r="B219" t="s">
         <v>102</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>382</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>523</v>
       </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1218</v>
+      </c>
+      <c r="B220" t="s">
         <v>102</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>383</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>542</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1219</v>
+      </c>
+      <c r="B221" t="s">
         <v>102</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>384</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>514</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1220</v>
+      </c>
+      <c r="B222" t="s">
         <v>102</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>385</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>534</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>1221</v>
+      </c>
+      <c r="B223" t="s">
         <v>102</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>386</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>542</v>
       </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>791</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1222</v>
+      </c>
+      <c r="B224" t="s">
         <v>103</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>387</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>541</v>
       </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1223</v>
+      </c>
+      <c r="B225" t="s">
         <v>104</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>388</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>532</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1224</v>
+      </c>
+      <c r="B226" t="s">
         <v>105</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>389</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>532</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1225</v>
+      </c>
+      <c r="B227" t="s">
         <v>105</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>274</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>517</v>
       </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1226</v>
+      </c>
+      <c r="B228" t="s">
         <v>105</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>182</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>521</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1227</v>
+      </c>
+      <c r="B229" t="s">
         <v>106</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>390</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>529</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1228</v>
+      </c>
+      <c r="B230" t="s">
         <v>107</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>391</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>573</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1229</v>
+      </c>
+      <c r="B231" t="s">
         <v>108</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>392</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>541</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1230</v>
+      </c>
+      <c r="B232" t="s">
         <v>108</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>393</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1231</v>
+      </c>
+      <c r="B233" t="s">
         <v>108</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>394</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>513</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1232</v>
+      </c>
+      <c r="B234" t="s">
         <v>108</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>395</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>529</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
         <v>800</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1233</v>
+      </c>
+      <c r="B235" t="s">
         <v>108</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>396</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>529</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1234</v>
+      </c>
+      <c r="B236" t="s">
         <v>108</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>397</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>534</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1235</v>
+      </c>
+      <c r="B237" t="s">
         <v>109</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>398</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>523</v>
       </c>
-      <c r="E237" t="s">
+      <c r="F237" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1236</v>
+      </c>
+      <c r="B238" t="s">
         <v>110</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>399</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>574</v>
       </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1237</v>
+      </c>
+      <c r="B239" t="s">
         <v>111</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>400</v>
       </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
         <v>568</v>
       </c>
-      <c r="E239" t="s">
+      <c r="F239" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1238</v>
+      </c>
+      <c r="B240" t="s">
         <v>111</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>401</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>514</v>
       </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>1239</v>
+      </c>
+      <c r="B241" t="s">
         <v>111</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>402</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>575</v>
       </c>
-      <c r="E241" t="s">
+      <c r="F241" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>1240</v>
+      </c>
+      <c r="B242" t="s">
         <v>111</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>403</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>534</v>
       </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>1241</v>
+      </c>
+      <c r="B243" t="s">
         <v>111</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>404</v>
       </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>521</v>
       </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>1242</v>
+      </c>
+      <c r="B244" t="s">
         <v>111</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>327</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>576</v>
       </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
         <v>809</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>1243</v>
+      </c>
+      <c r="B245" t="s">
         <v>111</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>405</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>541</v>
       </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>1244</v>
+      </c>
+      <c r="B246" t="s">
         <v>111</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>406</v>
       </c>
-      <c r="D246" t="s">
+      <c r="E246" t="s">
         <v>536</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>1245</v>
+      </c>
+      <c r="B247" t="s">
         <v>111</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>407</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>577</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1246</v>
+      </c>
+      <c r="B248" t="s">
         <v>111</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>408</v>
       </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>523</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>1247</v>
+      </c>
+      <c r="B249" t="s">
         <v>111</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>409</v>
       </c>
-      <c r="D249" t="s">
+      <c r="E249" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>1248</v>
+      </c>
+      <c r="B250" t="s">
         <v>111</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>410</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>578</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>814</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1249</v>
+      </c>
+      <c r="B251" t="s">
         <v>111</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>411</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>534</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1250</v>
+      </c>
+      <c r="B252" t="s">
         <v>111</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>412</v>
       </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>514</v>
       </c>
-      <c r="E252" t="s">
+      <c r="F252" t="s">
         <v>816</v>
       </c>
-      <c r="F252" t="s">
+      <c r="G252" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>1251</v>
+      </c>
+      <c r="B253" t="s">
         <v>111</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>413</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>954</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>1252</v>
+      </c>
+      <c r="B254" t="s">
         <v>111</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>414</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>579</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>1253</v>
+      </c>
+      <c r="B255" t="s">
         <v>112</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>415</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>545</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>1254</v>
+      </c>
+      <c r="B256" t="s">
         <v>113</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>416</v>
       </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>516</v>
       </c>
-      <c r="E256" t="s">
+      <c r="F256" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1255</v>
+      </c>
+      <c r="B257" t="s">
         <v>114</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>417</v>
       </c>
-      <c r="D257" t="s">
+      <c r="E257" t="s">
         <v>573</v>
       </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>1256</v>
+      </c>
+      <c r="B258" t="s">
         <v>114</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>418</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>573</v>
       </c>
-      <c r="E258" t="s">
+      <c r="F258" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>1257</v>
+      </c>
+      <c r="B259" t="s">
         <v>115</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>419</v>
       </c>
-      <c r="D259" t="s">
+      <c r="E259" t="s">
         <v>541</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>1258</v>
+      </c>
+      <c r="B260" t="s">
         <v>116</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>420</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>538</v>
       </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>1259</v>
+      </c>
+      <c r="B261" t="s">
         <v>116</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>421</v>
       </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>1260</v>
+      </c>
+      <c r="B262" t="s">
         <v>117</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>422</v>
       </c>
-      <c r="D262" t="s">
+      <c r="E262" t="s">
         <v>523</v>
       </c>
-      <c r="E262" t="s">
+      <c r="F262" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1261</v>
+      </c>
+      <c r="B263" t="s">
         <v>117</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>423</v>
       </c>
-      <c r="D263" t="s">
+      <c r="E263" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>1262</v>
+      </c>
+      <c r="B264" t="s">
         <v>117</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>424</v>
       </c>
-      <c r="D264" t="s">
+      <c r="E264" t="s">
         <v>948</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>1263</v>
+      </c>
+      <c r="B265" t="s">
         <v>117</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>425</v>
       </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
         <v>521</v>
       </c>
-      <c r="E265" t="s">
+      <c r="F265" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>1264</v>
+      </c>
+      <c r="B266" t="s">
         <v>118</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>426</v>
       </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
         <v>541</v>
       </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1265</v>
+      </c>
+      <c r="B267" t="s">
         <v>119</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>427</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>523</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>1266</v>
+      </c>
+      <c r="B268" t="s">
         <v>119</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>428</v>
       </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
         <v>948</v>
       </c>
-      <c r="E268" t="s">
+      <c r="F268" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>1267</v>
+      </c>
+      <c r="B269" t="s">
         <v>119</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>287</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>530</v>
       </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>1268</v>
+      </c>
+      <c r="B270" t="s">
         <v>119</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>351</v>
       </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
         <v>514</v>
       </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>831</v>
       </c>
-      <c r="F270" t="s">
+      <c r="G270" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>1269</v>
+      </c>
+      <c r="B271" t="s">
         <v>120</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>429</v>
       </c>
-      <c r="D271" t="s">
+      <c r="E271" t="s">
         <v>536</v>
       </c>
-      <c r="E271" t="s">
+      <c r="F271" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1270</v>
+      </c>
+      <c r="B272" t="s">
         <v>121</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>430</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>513</v>
       </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>1271</v>
+      </c>
+      <c r="B273" t="s">
         <v>121</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>431</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>521</v>
       </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>1272</v>
+      </c>
+      <c r="B274" t="s">
         <v>121</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>432</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>534</v>
       </c>
-      <c r="E274" t="s">
+      <c r="F274" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>1273</v>
+      </c>
+      <c r="B275" t="s">
         <v>121</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>433</v>
       </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
         <v>580</v>
       </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>1274</v>
+      </c>
+      <c r="B276" t="s">
         <v>121</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>434</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>524</v>
       </c>
-      <c r="E276" t="s">
+      <c r="F276" t="s">
         <v>837</v>
       </c>
-      <c r="F276" t="s">
+      <c r="G276" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>1275</v>
+      </c>
+      <c r="B277" t="s">
         <v>122</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>435</v>
       </c>
-      <c r="D277" t="s">
+      <c r="E277" t="s">
         <v>581</v>
       </c>
-      <c r="E277" t="s">
+      <c r="F277" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>1276</v>
+      </c>
+      <c r="B278" t="s">
         <v>123</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
         <v>373</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>541</v>
       </c>
-      <c r="E278" t="s">
+      <c r="F278" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>1277</v>
+      </c>
+      <c r="B279" t="s">
         <v>124</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>436</v>
       </c>
-      <c r="D279" t="s">
+      <c r="E279" t="s">
         <v>516</v>
       </c>
-      <c r="E279" t="s">
+      <c r="F279" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>1278</v>
+      </c>
+      <c r="B280" t="s">
         <v>125</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>437</v>
       </c>
-      <c r="D280" t="s">
+      <c r="E280" t="s">
         <v>547</v>
       </c>
-      <c r="E280" t="s">
+      <c r="F280" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>1279</v>
+      </c>
+      <c r="B281" t="s">
         <v>126</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>438</v>
       </c>
-      <c r="D281" t="s">
+      <c r="E281" t="s">
         <v>582</v>
       </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1280</v>
+      </c>
+      <c r="B282" t="s">
         <v>127</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>439</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>542</v>
       </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1281</v>
+      </c>
+      <c r="B283" t="s">
         <v>128</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>440</v>
       </c>
-      <c r="D283" t="s">
+      <c r="E283" t="s">
         <v>523</v>
       </c>
-      <c r="E283" t="s">
+      <c r="F283" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>1282</v>
+      </c>
+      <c r="B284" t="s">
         <v>129</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>441</v>
       </c>
-      <c r="D284" t="s">
+      <c r="E284" t="s">
         <v>541</v>
       </c>
-      <c r="E284" t="s">
+      <c r="F284" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1283</v>
+      </c>
+      <c r="B285" t="s">
         <v>130</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>442</v>
       </c>
-      <c r="D285" t="s">
+      <c r="E285" t="s">
         <v>516</v>
       </c>
-      <c r="E285" t="s">
+      <c r="F285" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>1284</v>
+      </c>
+      <c r="B286" t="s">
         <v>131</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>443</v>
       </c>
-      <c r="D286" t="s">
+      <c r="E286" t="s">
         <v>955</v>
       </c>
-      <c r="E286" t="s">
+      <c r="F286" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1285</v>
+      </c>
+      <c r="B287" t="s">
         <v>132</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>444</v>
       </c>
-      <c r="D287" t="s">
+      <c r="E287" t="s">
         <v>538</v>
       </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>1286</v>
+      </c>
+      <c r="B288" t="s">
         <v>132</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
         <v>445</v>
       </c>
-      <c r="D288" t="s">
+      <c r="E288" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>1287</v>
+      </c>
+      <c r="B289" t="s">
         <v>133</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>446</v>
       </c>
-      <c r="D289" t="s">
+      <c r="E289" t="s">
         <v>583</v>
       </c>
-      <c r="E289" t="s">
+      <c r="F289" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>1288</v>
+      </c>
+      <c r="B290" t="s">
         <v>133</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
         <v>447</v>
       </c>
-      <c r="D290" t="s">
+      <c r="E290" t="s">
         <v>516</v>
       </c>
-      <c r="E290" t="s">
+      <c r="F290" t="s">
         <v>850</v>
       </c>
-      <c r="F290" t="s">
+      <c r="G290" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>1289</v>
+      </c>
+      <c r="B291" t="s">
         <v>134</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
         <v>448</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291" t="s">
         <v>538</v>
       </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>1290</v>
+      </c>
+      <c r="B292" t="s">
         <v>135</v>
       </c>
-      <c r="B292" t="s">
+      <c r="C292" t="s">
         <v>449</v>
       </c>
-      <c r="D292" t="s">
+      <c r="E292" t="s">
         <v>584</v>
       </c>
-      <c r="E292" t="s">
+      <c r="F292" t="s">
         <v>852</v>
       </c>
-      <c r="F292" t="s">
+      <c r="G292" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>1291</v>
+      </c>
+      <c r="B293" t="s">
         <v>136</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" t="s">
         <v>450</v>
       </c>
-      <c r="D293" t="s">
+      <c r="E293" t="s">
         <v>523</v>
       </c>
-      <c r="E293" t="s">
+      <c r="F293" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>1292</v>
+      </c>
+      <c r="B294" t="s">
         <v>137</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
         <v>451</v>
       </c>
-      <c r="D294" t="s">
+      <c r="E294" t="s">
         <v>585</v>
       </c>
-      <c r="E294" t="s">
+      <c r="F294" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>1293</v>
+      </c>
+      <c r="B295" t="s">
         <v>138</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>452</v>
       </c>
-      <c r="D295" t="s">
+      <c r="E295" t="s">
         <v>516</v>
       </c>
-      <c r="E295" t="s">
+      <c r="F295" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>1294</v>
+      </c>
+      <c r="B296" t="s">
         <v>138</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>354</v>
       </c>
-      <c r="D296" t="s">
+      <c r="E296" t="s">
         <v>516</v>
       </c>
-      <c r="E296" t="s">
+      <c r="F296" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>1295</v>
+      </c>
+      <c r="B297" t="s">
         <v>139</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>453</v>
       </c>
-      <c r="D297" t="s">
+      <c r="E297" t="s">
         <v>586</v>
       </c>
-      <c r="E297" t="s">
+      <c r="F297" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>1296</v>
+      </c>
+      <c r="B298" t="s">
         <v>139</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>454</v>
       </c>
-      <c r="D298" t="s">
+      <c r="E298" t="s">
         <v>552</v>
       </c>
-      <c r="E298" t="s">
+      <c r="F298" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>1297</v>
+      </c>
+      <c r="B299" t="s">
         <v>139</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
         <v>455</v>
       </c>
-      <c r="D299" t="s">
+      <c r="E299" t="s">
         <v>544</v>
       </c>
-      <c r="E299" t="s">
+      <c r="F299" t="s">
         <v>857</v>
       </c>
-      <c r="F299" t="s">
+      <c r="G299" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>1298</v>
+      </c>
+      <c r="B300" t="s">
         <v>140</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>456</v>
       </c>
-      <c r="D300" t="s">
+      <c r="E300" t="s">
         <v>552</v>
       </c>
-      <c r="E300" t="s">
+      <c r="F300" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>1299</v>
+      </c>
+      <c r="B301" t="s">
         <v>140</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" t="s">
         <v>319</v>
       </c>
-      <c r="D301" t="s">
+      <c r="E301" t="s">
         <v>542</v>
       </c>
-      <c r="E301" t="s">
+      <c r="F301" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>1300</v>
+      </c>
+      <c r="B302" t="s">
         <v>141</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>457</v>
       </c>
-      <c r="D302" t="s">
+      <c r="E302" t="s">
         <v>541</v>
       </c>
-      <c r="E302" t="s">
+      <c r="F302" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>1301</v>
+      </c>
+      <c r="B303" t="s">
         <v>142</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>456</v>
       </c>
-      <c r="D303" t="s">
+      <c r="E303" t="s">
         <v>530</v>
       </c>
-      <c r="E303" t="s">
+      <c r="F303" t="s">
         <v>858</v>
       </c>
-      <c r="F303" t="s">
+      <c r="G303" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>1302</v>
+      </c>
+      <c r="B304" t="s">
         <v>143</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
         <v>458</v>
       </c>
-      <c r="D304" t="s">
+      <c r="E304" t="s">
         <v>523</v>
       </c>
-      <c r="E304" t="s">
+      <c r="F304" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>1303</v>
+      </c>
+      <c r="B305" t="s">
         <v>144</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>459</v>
       </c>
-      <c r="D305" t="s">
+      <c r="E305" t="s">
         <v>536</v>
       </c>
-      <c r="E305" t="s">
+      <c r="F305" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>1304</v>
+      </c>
+      <c r="B306" t="s">
         <v>144</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
         <v>321</v>
       </c>
-      <c r="D306" t="s">
+      <c r="E306" t="s">
         <v>587</v>
       </c>
-      <c r="E306" t="s">
+      <c r="F306" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>1305</v>
+      </c>
+      <c r="B307" t="s">
         <v>145</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>460</v>
       </c>
-      <c r="D307" t="s">
+      <c r="E307" t="s">
         <v>541</v>
       </c>
-      <c r="E307" t="s">
+      <c r="F307" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>1306</v>
+      </c>
+      <c r="B308" t="s">
         <v>145</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>461</v>
       </c>
-      <c r="D308" t="s">
+      <c r="E308" t="s">
         <v>530</v>
       </c>
-      <c r="E308" t="s">
+      <c r="F308" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>1307</v>
+      </c>
+      <c r="B309" t="s">
         <v>146</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
         <v>462</v>
       </c>
-      <c r="D309" t="s">
+      <c r="E309" t="s">
         <v>521</v>
       </c>
-      <c r="E309" t="s">
+      <c r="F309" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>1308</v>
+      </c>
+      <c r="B310" t="s">
         <v>146</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
         <v>268</v>
       </c>
-      <c r="D310" t="s">
+      <c r="E310" t="s">
         <v>530</v>
       </c>
-      <c r="E310" t="s">
+      <c r="F310" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>1309</v>
+      </c>
+      <c r="B311" t="s">
         <v>146</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" t="s">
         <v>269</v>
       </c>
-      <c r="D311" t="s">
+      <c r="E311" t="s">
         <v>517</v>
       </c>
-      <c r="E311" t="s">
+      <c r="F311" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>1310</v>
+      </c>
+      <c r="B312" t="s">
         <v>146</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
         <v>201</v>
       </c>
-      <c r="D312" t="s">
+      <c r="E312" t="s">
         <v>521</v>
       </c>
-      <c r="E312" t="s">
+      <c r="F312" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>1311</v>
+      </c>
+      <c r="B313" t="s">
         <v>146</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
         <v>293</v>
       </c>
-      <c r="D313" t="s">
+      <c r="E313" t="s">
         <v>521</v>
       </c>
-      <c r="E313" t="s">
+      <c r="F313" t="s">
         <v>709</v>
       </c>
-      <c r="F313" t="s">
+      <c r="G313" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>1312</v>
+      </c>
+      <c r="B314" t="s">
         <v>146</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
         <v>410</v>
       </c>
-      <c r="D314" t="s">
+      <c r="E314" t="s">
         <v>549</v>
       </c>
-      <c r="E314" t="s">
+      <c r="F314" t="s">
         <v>868</v>
       </c>
-      <c r="F314" t="s">
+      <c r="G314" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>1313</v>
+      </c>
+      <c r="B315" t="s">
         <v>146</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
         <v>463</v>
       </c>
-      <c r="D315" t="s">
+      <c r="E315" t="s">
         <v>544</v>
       </c>
-      <c r="E315" t="s">
+      <c r="F315" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>1314</v>
+      </c>
+      <c r="B316" t="s">
         <v>146</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" t="s">
         <v>464</v>
       </c>
-      <c r="D316" t="s">
+      <c r="E316" t="s">
         <v>534</v>
       </c>
-      <c r="E316" t="s">
+      <c r="F316" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>1315</v>
+      </c>
+      <c r="B317" t="s">
         <v>146</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>221</v>
       </c>
-      <c r="D317" t="s">
+      <c r="E317" t="s">
         <v>516</v>
       </c>
-      <c r="E317" t="s">
+      <c r="F317" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>1316</v>
+      </c>
+      <c r="B318" t="s">
         <v>146</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
         <v>465</v>
       </c>
-      <c r="D318" t="s">
+      <c r="E318" t="s">
         <v>514</v>
       </c>
-      <c r="E318" t="s">
+      <c r="F318" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>1317</v>
+      </c>
+      <c r="B319" t="s">
         <v>146</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>466</v>
       </c>
-      <c r="D319" t="s">
+      <c r="E319" t="s">
         <v>542</v>
       </c>
-      <c r="E319" t="s">
+      <c r="F319" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>1318</v>
+      </c>
+      <c r="B320" t="s">
         <v>146</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>385</v>
       </c>
-      <c r="D320" t="s">
+      <c r="E320" t="s">
         <v>536</v>
       </c>
-      <c r="E320" t="s">
+      <c r="F320" t="s">
         <v>874</v>
       </c>
-      <c r="F320" t="s">
+      <c r="G320" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>1319</v>
+      </c>
+      <c r="B321" t="s">
         <v>146</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
         <v>467</v>
       </c>
-      <c r="D321" t="s">
+      <c r="E321" t="s">
         <v>516</v>
       </c>
-      <c r="E321" t="s">
+      <c r="F321" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>1320</v>
+      </c>
+      <c r="B322" t="s">
         <v>147</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
         <v>468</v>
       </c>
-      <c r="D322" t="s">
+      <c r="E322" t="s">
         <v>545</v>
       </c>
-      <c r="E322" t="s">
+      <c r="F322" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>1321</v>
+      </c>
+      <c r="B323" t="s">
         <v>147</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>469</v>
       </c>
-      <c r="D323" t="s">
+      <c r="E323" t="s">
         <v>541</v>
       </c>
-      <c r="E323" t="s">
+      <c r="F323" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>1322</v>
+      </c>
+      <c r="B324" t="s">
         <v>148</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>470</v>
       </c>
-      <c r="D324" t="s">
+      <c r="E324" t="s">
         <v>513</v>
       </c>
-      <c r="E324" t="s">
+      <c r="F324" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>1323</v>
+      </c>
+      <c r="B325" t="s">
         <v>149</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
         <v>471</v>
       </c>
-      <c r="D325" t="s">
+      <c r="E325" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>1324</v>
+      </c>
+      <c r="B326" t="s">
         <v>150</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>472</v>
       </c>
-      <c r="D326" t="s">
+      <c r="E326" t="s">
         <v>956</v>
       </c>
-      <c r="E326" t="s">
+      <c r="F326" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>1325</v>
+      </c>
+      <c r="B327" t="s">
         <v>150</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>473</v>
       </c>
-      <c r="D327" t="s">
+      <c r="E327" t="s">
         <v>523</v>
       </c>
-      <c r="E327" t="s">
+      <c r="F327" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>1326</v>
+      </c>
+      <c r="B328" t="s">
         <v>150</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>474</v>
       </c>
-      <c r="D328" t="s">
+      <c r="E328" t="s">
         <v>588</v>
       </c>
-      <c r="E328" t="s">
+      <c r="F328" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>1327</v>
+      </c>
+      <c r="B329" t="s">
         <v>151</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>475</v>
       </c>
-      <c r="D329" t="s">
+      <c r="E329" t="s">
         <v>522</v>
       </c>
-      <c r="E329" t="s">
+      <c r="F329" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>1328</v>
+      </c>
+      <c r="B330" t="s">
         <v>151</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
         <v>476</v>
       </c>
-      <c r="D330" t="s">
+      <c r="E330" t="s">
         <v>523</v>
       </c>
-      <c r="E330" t="s">
+      <c r="F330" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>1329</v>
+      </c>
+      <c r="B331" t="s">
         <v>152</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>477</v>
       </c>
-      <c r="D331" t="s">
+      <c r="E331" t="s">
         <v>530</v>
       </c>
-      <c r="E331" t="s">
+      <c r="F331" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>1330</v>
+      </c>
+      <c r="B332" t="s">
         <v>152</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>478</v>
       </c>
-      <c r="D332" t="s">
+      <c r="E332" t="s">
         <v>545</v>
       </c>
-      <c r="E332" t="s">
+      <c r="F332" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1331</v>
+      </c>
+      <c r="B333" t="s">
         <v>152</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>261</v>
       </c>
-      <c r="D333" t="s">
+      <c r="E333" t="s">
         <v>517</v>
       </c>
-      <c r="E333" t="s">
+      <c r="F333" t="s">
         <v>681</v>
       </c>
-      <c r="F333" t="s">
+      <c r="G333" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>1332</v>
+      </c>
+      <c r="B334" t="s">
         <v>152</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>479</v>
       </c>
-      <c r="D334" t="s">
+      <c r="E334" t="s">
         <v>589</v>
       </c>
-      <c r="E334" t="s">
+      <c r="F334" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>1333</v>
+      </c>
+      <c r="B335" t="s">
         <v>152</v>
       </c>
-      <c r="B335" t="s">
+      <c r="C335" t="s">
         <v>349</v>
       </c>
-      <c r="D335" t="s">
+      <c r="E335" t="s">
         <v>523</v>
       </c>
-      <c r="E335" t="s">
+      <c r="F335" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>1334</v>
+      </c>
+      <c r="B336" t="s">
         <v>153</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" t="s">
         <v>480</v>
       </c>
-      <c r="D336" t="s">
+      <c r="E336" t="s">
         <v>590</v>
       </c>
-      <c r="E336" t="s">
+      <c r="F336" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>1335</v>
+      </c>
+      <c r="B337" t="s">
         <v>154</v>
       </c>
-      <c r="B337" t="s">
+      <c r="C337" t="s">
         <v>407</v>
       </c>
-      <c r="D337" t="s">
+      <c r="E337" t="s">
         <v>577</v>
       </c>
-      <c r="E337" t="s">
+      <c r="F337" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>1336</v>
+      </c>
+      <c r="B338" t="s">
         <v>155</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>481</v>
       </c>
-      <c r="D338" t="s">
+      <c r="E338" t="s">
         <v>530</v>
       </c>
-      <c r="E338" t="s">
+      <c r="F338" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>1337</v>
+      </c>
+      <c r="B339" t="s">
         <v>156</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" t="s">
         <v>482</v>
       </c>
-      <c r="D339" t="s">
+      <c r="E339" t="s">
         <v>521</v>
       </c>
-      <c r="E339" t="s">
+      <c r="F339" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>1338</v>
+      </c>
+      <c r="B340" t="s">
         <v>156</v>
       </c>
-      <c r="B340" t="s">
+      <c r="C340" t="s">
         <v>483</v>
       </c>
-      <c r="D340" t="s">
+      <c r="E340" t="s">
         <v>534</v>
       </c>
-      <c r="E340" t="s">
+      <c r="F340" t="s">
         <v>890</v>
       </c>
-      <c r="F340" t="s">
+      <c r="G340" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>1339</v>
+      </c>
+      <c r="B341" t="s">
         <v>156</v>
       </c>
-      <c r="B341" t="s">
+      <c r="C341" t="s">
         <v>484</v>
       </c>
-      <c r="D341" t="s">
+      <c r="E341" t="s">
         <v>542</v>
       </c>
-      <c r="E341" t="s">
+      <c r="F341" t="s">
         <v>891</v>
       </c>
-      <c r="F341" t="s">
+      <c r="G341" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>1340</v>
+      </c>
+      <c r="B342" t="s">
         <v>156</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>485</v>
       </c>
-      <c r="D342" t="s">
+      <c r="E342" t="s">
         <v>591</v>
       </c>
-      <c r="E342" t="s">
+      <c r="F342" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>1341</v>
+      </c>
+      <c r="B343" t="s">
         <v>156</v>
       </c>
-      <c r="B343" t="s">
+      <c r="C343" t="s">
         <v>486</v>
       </c>
-      <c r="D343" t="s">
+      <c r="E343" t="s">
         <v>536</v>
       </c>
-      <c r="E343" t="s">
+      <c r="F343" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>1342</v>
+      </c>
+      <c r="B344" t="s">
         <v>156</v>
       </c>
-      <c r="B344" t="s">
+      <c r="C344" t="s">
         <v>487</v>
       </c>
-      <c r="D344" t="s">
+      <c r="E344" t="s">
         <v>592</v>
       </c>
-      <c r="E344" t="s">
+      <c r="F344" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>1343</v>
+      </c>
+      <c r="B345" t="s">
         <v>157</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
         <v>488</v>
       </c>
-      <c r="D345" t="s">
+      <c r="E345" t="s">
         <v>523</v>
       </c>
-      <c r="E345" t="s">
+      <c r="F345" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>1344</v>
+      </c>
+      <c r="B346" t="s">
         <v>158</v>
       </c>
-      <c r="B346" t="s">
+      <c r="C346" t="s">
         <v>489</v>
       </c>
-      <c r="D346" t="s">
+      <c r="E346" t="s">
         <v>528</v>
       </c>
-      <c r="E346" t="s">
+      <c r="F346" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>1345</v>
+      </c>
+      <c r="B347" t="s">
         <v>158</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>490</v>
       </c>
-      <c r="D347" t="s">
+      <c r="E347" t="s">
         <v>532</v>
       </c>
-      <c r="E347" t="s">
+      <c r="F347" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>1346</v>
+      </c>
+      <c r="B348" t="s">
         <v>159</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C348" t="s">
         <v>491</v>
       </c>
-      <c r="D348" t="s">
+      <c r="E348" t="s">
         <v>529</v>
       </c>
-      <c r="E348" t="s">
+      <c r="F348" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>1347</v>
+      </c>
+      <c r="B349" t="s">
         <v>159</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C349" t="s">
         <v>492</v>
       </c>
-      <c r="D349" t="s">
+      <c r="E349" t="s">
         <v>593</v>
       </c>
-      <c r="E349" t="s">
+      <c r="F349" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>1348</v>
+      </c>
+      <c r="B350" t="s">
         <v>159</v>
       </c>
-      <c r="B350" t="s">
+      <c r="C350" t="s">
         <v>493</v>
       </c>
-      <c r="D350" t="s">
+      <c r="E350" t="s">
         <v>517</v>
       </c>
-      <c r="E350" t="s">
+      <c r="F350" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>1349</v>
+      </c>
+      <c r="B351" t="s">
         <v>159</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C351" t="s">
         <v>494</v>
       </c>
-      <c r="D351" t="s">
+      <c r="E351" t="s">
         <v>514</v>
       </c>
-      <c r="E351" t="s">
+      <c r="F351" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>1350</v>
+      </c>
+      <c r="B352" t="s">
         <v>160</v>
       </c>
-      <c r="B352" t="s">
+      <c r="C352" t="s">
         <v>495</v>
       </c>
-      <c r="D352" t="s">
+      <c r="E352" t="s">
         <v>545</v>
       </c>
-      <c r="E352" t="s">
+      <c r="F352" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>1351</v>
+      </c>
+      <c r="B353" t="s">
         <v>161</v>
       </c>
-      <c r="B353" t="s">
+      <c r="C353" t="s">
         <v>496</v>
       </c>
-      <c r="D353" t="s">
+      <c r="E353" t="s">
         <v>589</v>
       </c>
-      <c r="E353" t="s">
+      <c r="F353" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>1352</v>
+      </c>
+      <c r="B354" t="s">
         <v>162</v>
       </c>
-      <c r="B354" t="s">
+      <c r="C354" t="s">
         <v>497</v>
       </c>
-      <c r="D354" t="s">
+      <c r="E354" t="s">
         <v>545</v>
       </c>
-      <c r="E354" t="s">
+      <c r="F354" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>1353</v>
+      </c>
+      <c r="B355" t="s">
         <v>163</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" t="s">
         <v>498</v>
       </c>
-      <c r="D355" t="s">
+      <c r="E355" t="s">
         <v>513</v>
       </c>
-      <c r="E355" t="s">
+      <c r="F355" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>1354</v>
+      </c>
+      <c r="B356" t="s">
         <v>164</v>
       </c>
-      <c r="B356" t="s">
+      <c r="C356" t="s">
         <v>499</v>
       </c>
-      <c r="D356" t="s">
+      <c r="E356" t="s">
         <v>594</v>
       </c>
-      <c r="E356" t="s">
+      <c r="F356" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>1355</v>
+      </c>
+      <c r="B357" t="s">
         <v>165</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C357" t="s">
         <v>500</v>
       </c>
-      <c r="D357" t="s">
+      <c r="E357" t="s">
         <v>530</v>
       </c>
-      <c r="E357" t="s">
+      <c r="F357" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>1356</v>
+      </c>
+      <c r="B358" t="s">
         <v>165</v>
       </c>
-      <c r="B358" t="s">
+      <c r="C358" t="s">
         <v>501</v>
       </c>
-      <c r="D358" t="s">
+      <c r="E358" t="s">
         <v>516</v>
       </c>
-      <c r="E358" t="s">
+      <c r="F358" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>1357</v>
+      </c>
+      <c r="B359" t="s">
         <v>165</v>
       </c>
-      <c r="B359" t="s">
+      <c r="C359" t="s">
         <v>502</v>
       </c>
-      <c r="D359" t="s">
+      <c r="E359" t="s">
         <v>529</v>
       </c>
-      <c r="E359" t="s">
+      <c r="F359" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>1358</v>
+      </c>
+      <c r="B360" t="s">
         <v>166</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
         <v>458</v>
       </c>
-      <c r="D360" t="s">
+      <c r="E360" t="s">
         <v>523</v>
       </c>
-      <c r="E360" t="s">
+      <c r="F360" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>1359</v>
+      </c>
+      <c r="B361" t="s">
         <v>166</v>
       </c>
-      <c r="B361" t="s">
+      <c r="C361" t="s">
         <v>503</v>
       </c>
-      <c r="D361" t="s">
+      <c r="E361" t="s">
         <v>514</v>
       </c>
-      <c r="E361" t="s">
+      <c r="F361" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>1360</v>
+      </c>
+      <c r="B362" t="s">
         <v>166</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
         <v>504</v>
       </c>
-      <c r="D362" t="s">
+      <c r="E362" t="s">
         <v>529</v>
       </c>
-      <c r="E362" t="s">
+      <c r="F362" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>1361</v>
+      </c>
+      <c r="B363" t="s">
         <v>166</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>347</v>
       </c>
-      <c r="D363" t="s">
+      <c r="E363" t="s">
         <v>538</v>
       </c>
-      <c r="E363" t="s">
+      <c r="F363" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>1362</v>
+      </c>
+      <c r="B364" t="s">
         <v>166</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
         <v>505</v>
       </c>
-      <c r="D364" t="s">
+      <c r="E364" t="s">
         <v>595</v>
       </c>
-      <c r="E364" t="s">
+      <c r="F364" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>1363</v>
+      </c>
+      <c r="B365" t="s">
         <v>166</v>
       </c>
-      <c r="B365" t="s">
+      <c r="C365" t="s">
         <v>506</v>
       </c>
-      <c r="D365" t="s">
+      <c r="E365" t="s">
         <v>523</v>
       </c>
-      <c r="E365" t="s">
+      <c r="F365" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>1364</v>
+      </c>
+      <c r="B366" t="s">
         <v>166</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>320</v>
       </c>
-      <c r="D366" t="s">
+      <c r="E366" t="s">
         <v>585</v>
       </c>
-      <c r="E366" t="s">
+      <c r="F366" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>1365</v>
+      </c>
+      <c r="B367" t="s">
         <v>166</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C367" t="s">
         <v>507</v>
       </c>
-      <c r="D367" t="s">
+      <c r="E367" t="s">
         <v>538</v>
       </c>
-      <c r="E367" t="s">
+      <c r="F367" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>1366</v>
+      </c>
+      <c r="B368" t="s">
         <v>167</v>
       </c>
-      <c r="B368" t="s">
+      <c r="C368" t="s">
         <v>508</v>
       </c>
-      <c r="D368" t="s">
+      <c r="E368" t="s">
         <v>532</v>
       </c>
-      <c r="E368" t="s">
+      <c r="F368" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>1367</v>
+      </c>
+      <c r="B369" t="s">
         <v>168</v>
       </c>
-      <c r="B369" t="s">
+      <c r="C369" t="s">
         <v>509</v>
       </c>
-      <c r="D369" t="s">
+      <c r="E369" t="s">
         <v>513</v>
       </c>
-      <c r="E369" t="s">
+      <c r="F369" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>1368</v>
+      </c>
+      <c r="B370" t="s">
         <v>169</v>
       </c>
-      <c r="B370" t="s">
+      <c r="C370" t="s">
         <v>510</v>
       </c>
-      <c r="D370" t="s">
+      <c r="E370" t="s">
         <v>529</v>
       </c>
-      <c r="E370" t="s">
+      <c r="F370" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>1369</v>
+      </c>
+      <c r="B371" t="s">
         <v>170</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C371" t="s">
         <v>511</v>
       </c>
-      <c r="D371" t="s">
+      <c r="E371" t="s">
         <v>551</v>
       </c>
-      <c r="E371" t="s">
+      <c r="F371" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>1370</v>
+      </c>
+      <c r="B372" t="s">
         <v>171</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C372" t="s">
         <v>512</v>
       </c>
-      <c r="D372" t="s">
+      <c r="E372" t="s">
         <v>534</v>
       </c>
-      <c r="E372" t="s">
+      <c r="F372" t="s">
         <v>918</v>
       </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B377" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rellenar_filled.xlsx
+++ b/rellenar_filled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\starFactory\starFactory-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE32B41C-1476-4C31-B408-9E206FC59E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0B04B0-6D02-4E69-96B5-9E157EA8ECBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="935">
   <si>
     <t>ABRIL</t>
   </si>
@@ -1569,252 +1569,12 @@
     <t>NUEVOS ALUMNOS</t>
   </si>
   <si>
-    <t>COM MED PATRI</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, COM INICIO DIEGO, URBAN INI NEREA</t>
-  </si>
-  <si>
-    <t>KIDS PATRI</t>
-  </si>
-  <si>
-    <t>URBAN INTERM NEREA</t>
-  </si>
-  <si>
-    <t>HEELS POLO</t>
-  </si>
-  <si>
-    <t>CONT YANNICK, DH INTERM ISABELA, URBAN INTERMEDIO ROCIO</t>
-  </si>
-  <si>
-    <t>COM MED DIEGO, COM MED JUANJE</t>
-  </si>
-  <si>
-    <t>KIDS 3 MERCEDES</t>
-  </si>
-  <si>
-    <t>CONT YANNICK</t>
-  </si>
-  <si>
-    <t>COM MED DIEGO</t>
-  </si>
-  <si>
-    <t>URBAN INTERM NACHO</t>
-  </si>
-  <si>
-    <t>COM INI PATRI, URBAN INTERM NEREA</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, HH INICIO PAULA, URBAN INTERM NACHO</t>
-  </si>
-  <si>
-    <t>CHOREO CLASS INTERM ARI, COM MED JUANJE</t>
-  </si>
-  <si>
-    <t>COM MED JUANJE, COM MED PATRI</t>
-  </si>
-  <si>
-    <t>COM KIDS JUANJE</t>
-  </si>
-  <si>
-    <t>COM INI PATRI</t>
-  </si>
-  <si>
-    <t>HH AVANZADO ADRIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASISTENCIAS L&amp;M, LAT MED J&amp;M </t>
-  </si>
-  <si>
-    <t>KIDS 4 ROCIO</t>
-  </si>
-  <si>
-    <t>COM MED JUANJE</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS M&amp;J (2), CHOREO CLASS INTERM ARI, CONT YANNICK, DH INICIO ISABELA, HEELS POLO, URB MED ESTELA</t>
-  </si>
-  <si>
-    <t>URB INICIO ESTEFANIA</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, URBAN INTERM NACHO</t>
-  </si>
-  <si>
-    <t>URBAN INI NEREA</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S</t>
-  </si>
-  <si>
-    <t>DH INICIO ISABELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAT MED J&amp;M </t>
-  </si>
-  <si>
-    <t>URBAN INTERMEDIO ROCIO</t>
-  </si>
-  <si>
-    <t>COM INI PATRI, URBAN INI NEREA</t>
-  </si>
-  <si>
-    <t>HH INICIO - INTERM PAULA &amp; ADRI</t>
-  </si>
-  <si>
-    <t>LAT BAS-MED VIERNES JESUS</t>
-  </si>
-  <si>
-    <t>COM MED JUANJE, URB MED ESTELA, URBAN INTERM NACHO</t>
-  </si>
-  <si>
-    <t>BACHATA SENSUAL INICIO</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS M&amp;J (2), DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO, HEELS POLO</t>
-  </si>
-  <si>
-    <t>CONT YANNICK, DH INTERM ISABELA</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, CHOREO CLASS INTERM ARI</t>
-  </si>
-  <si>
-    <t>COM AVAN JUANJE, URBAN INTERM NEREA</t>
-  </si>
-  <si>
-    <t>FORMACION KIDS</t>
-  </si>
-  <si>
-    <t>COM AVAN JUANJE, DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO, INTENSIVOS DE VERANO</t>
-  </si>
-  <si>
     <t>COM MED PATRI, NUEVOS ALUMNOS</t>
   </si>
   <si>
-    <t>ASISTENCIAS L&amp;M</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, COM MED DIEGO, URBAN INICIO ERIC</t>
-  </si>
-  <si>
-    <t>INTENSIVOS DE VERANO</t>
-  </si>
-  <si>
-    <t>COM MED PATRI, URB MED ESTELA</t>
-  </si>
-  <si>
-    <t>COM MED JUANJE, URBAN INI NEREA</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, CHOREO CLASS INTERM ARI, COM INICIO DIEGO</t>
-  </si>
-  <si>
-    <t>COM AVAN JUANJE, CONT YANNICK, ESTELA AVANZADO</t>
-  </si>
-  <si>
-    <t>DH INTERM ISABELA</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, COM MED DIEGO, URBAN INTERM NACHO</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS L&amp;M, DH INICIO ISABELA</t>
-  </si>
-  <si>
-    <t>COM MED JUANJE, URB MED ESTELA</t>
-  </si>
-  <si>
-    <t>COM INI PATRI, COM MED DIEGO</t>
-  </si>
-  <si>
-    <t>COM MED PATRI, FORMACION KIDS, URB MED ESTELA</t>
-  </si>
-  <si>
-    <t>URB MED ESTELA</t>
-  </si>
-  <si>
-    <t>CHOREO CLASS INTERM ARI</t>
-  </si>
-  <si>
-    <t>URB INICIO ESTEFANIA, URBAN INI NEREA</t>
-  </si>
-  <si>
-    <t>COM INI PATRI, FORMACION KIDS</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS M&amp;J (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASISTENCIAS L&amp;M, BACHATA SENSUAL INTERMEDIO, LAT MED J&amp;M </t>
-  </si>
-  <si>
     <t>LAT INI J&amp;M, NUEVOS ALUMNOS</t>
   </si>
   <si>
-    <t>DH INTERM ISABELA, HH INICIO - INTERM PAULA &amp; ADRI, URBAN INTERM NACHO</t>
-  </si>
-  <si>
-    <t>FORMACION KIDS, KIDS PATRI</t>
-  </si>
-  <si>
-    <t>LAT INI J&amp;M</t>
-  </si>
-  <si>
-    <t>DH INTERM ISABELA, URB MED ESTELA, URBAN INTERM NACHO</t>
-  </si>
-  <si>
-    <t>ESTELA AVANZADO</t>
-  </si>
-  <si>
-    <t>COM AVAN JUANJE</t>
-  </si>
-  <si>
-    <t>CONT YANNICK, HEELS POLO</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, COM MED JUANJE, URB MED ESTELA</t>
-  </si>
-  <si>
-    <t>COM INICIO DIEGO</t>
-  </si>
-  <si>
-    <t>COM AVAN JUANJE, DH QUEEN ORI &amp; CRIS</t>
-  </si>
-  <si>
-    <t>FORMACION KIDS, URBAN INI NEREA</t>
-  </si>
-  <si>
-    <t>DH QUEEN ORI &amp; CRIS, HH AVANZADO ADRIAN</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, CHOREO CLASS INTERM ARI, URBAN INICIO ERIC</t>
-  </si>
-  <si>
-    <t>COM AVAN JUANJE, DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS M&amp;J (2), HEELS POLO</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, DH QUEEN ORI &amp; CRIS</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, HH INICIO - INTERM PAULA &amp; ADRI, URBAN INICIO ERIC</t>
-  </si>
-  <si>
-    <t>DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS V&amp;S, COM MED JUANJE, URBAN INTERM NACHO, URBAN INTERM NEREA</t>
-  </si>
-  <si>
-    <t>ASISTENCIAS M&amp;J (2), CONT YANNICK, HEELS POLO, URB MED ESTELA</t>
-  </si>
-  <si>
-    <t>FORMACION KIDS, KIDS 3 MERCEDES</t>
-  </si>
-  <si>
     <t>625950047</t>
   </si>
   <si>
@@ -2784,120 +2544,6 @@
     <t>637204285</t>
   </si>
   <si>
-    <t>678300663</t>
-  </si>
-  <si>
-    <t>657019740</t>
-  </si>
-  <si>
-    <t>667064282</t>
-  </si>
-  <si>
-    <t>658550480</t>
-  </si>
-  <si>
-    <t>640285163</t>
-  </si>
-  <si>
-    <t>616572616</t>
-  </si>
-  <si>
-    <t>656547274</t>
-  </si>
-  <si>
-    <t>627345245</t>
-  </si>
-  <si>
-    <t>637369915</t>
-  </si>
-  <si>
-    <t>655953926</t>
-  </si>
-  <si>
-    <t>623927029</t>
-  </si>
-  <si>
-    <t>609344139</t>
-  </si>
-  <si>
-    <t>659412754</t>
-  </si>
-  <si>
-    <t>644108807</t>
-  </si>
-  <si>
-    <t>649428304</t>
-  </si>
-  <si>
-    <t>643866922</t>
-  </si>
-  <si>
-    <t>622745130</t>
-  </si>
-  <si>
-    <t>622766344</t>
-  </si>
-  <si>
-    <t>655095623</t>
-  </si>
-  <si>
-    <t>661633620</t>
-  </si>
-  <si>
-    <t>658771742</t>
-  </si>
-  <si>
-    <t>637014998</t>
-  </si>
-  <si>
-    <t>644140814</t>
-  </si>
-  <si>
-    <t>616741563</t>
-  </si>
-  <si>
-    <t>600075454</t>
-  </si>
-  <si>
-    <t>654122543</t>
-  </si>
-  <si>
-    <t>665405913</t>
-  </si>
-  <si>
-    <t>623001996</t>
-  </si>
-  <si>
-    <t>686005837</t>
-  </si>
-  <si>
-    <t>COM AVAN POLO</t>
-  </si>
-  <si>
-    <t>COM AVAN POLO, COM AVAN JUANJE</t>
-  </si>
-  <si>
-    <t>COM AVAN POLO, DH QUEEN ORI &amp; CRIS</t>
-  </si>
-  <si>
-    <t>COM AVAN POLO, DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO</t>
-  </si>
-  <si>
-    <t>COM AVAN POLO, HEELS POLO</t>
-  </si>
-  <si>
-    <t>COM AVAN POLO, URB MED ESTELA</t>
-  </si>
-  <si>
-    <t>COM AVAN POLO, ASISTENCIAS M&amp;J (2), HEELS POLO</t>
-  </si>
-  <si>
-    <t>COM AVAN POLO, DH INTERM ISABELA, ESTELA AVANZADO, HEELS POLO</t>
-  </si>
-  <si>
-    <t>COM AVAN POLO, HEELS POLO, URB MED ESTELA</t>
-  </si>
-  <si>
     <t>telefono</t>
   </si>
   <si>
@@ -2917,6 +2563,273 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>COM MED JUANJE, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN JUANJE, URBAN INTERM NEREA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM KIDS JUANJE, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS L&amp;M, LAT MED J&amp;M, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>URBAN INI NEREA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>FORMACION KIDS, URBAN INI NEREA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM MED DIEGO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>FORMACION KIDS, KIDS 3 MERCEDES, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM MED PATRI, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>KIDS PATRI, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM INI PATRI, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS M&amp;J (2), CONT YANNICK, HEELS POLO, URB MED ESTELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>LAT BAS-MED VIERNES JESUS, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS M&amp;J (2), HEELS POLO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>URBAN INTERM NEREA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, COM MED JUANJE, URBAN INTERM NACHO, URBAN INTERM NEREA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM MED JUANJE, COM MED PATRI, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>URB INICIO ESTEFANIA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, HH INICIO - INTERM PAULA &amp; ADRI, URBAN INICIO ERIC, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>URBAN INTERMEDIO ROCIO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>KIDS 3 MERCEDES, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>LAT INI J&amp;M, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, DH QUEEN ORI &amp; CRIS, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>CONT YANNICK, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN JUANJE, DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN POLO, HEELS POLO, URB MED ESTELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS L&amp;M, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>LAT MED J&amp;M, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>HH INICIO - INTERM PAULA &amp; ADRI, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>CONT YANNICK, DH INTERM ISABELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, CHOREO CLASS INTERM ARI, URBAN INICIO ERIC, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>FORMACION KIDS, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>DH QUEEN ORI &amp; CRIS, HH AVANZADO ADRIAN, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN JUANJE, DH QUEEN ORI &amp; CRIS, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM INICIO DIEGO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN POLO, DH INTERM ISABELA, ESTELA AVANZADO, HEELS POLO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, COM MED JUANJE, URB MED ESTELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>BACHATA SENSUAL INICIO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>CONT YANNICK, HEELS POLO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>URBAN INTERM NACHO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN JUANJE, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN POLO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS L&amp;M, BACHATA SENSUAL INTERMEDIO, LAT MED J&amp;M, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ESTELA AVANZADO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN POLO, ASISTENCIAS M&amp;J (2), HEELS POLO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>DH INTERM ISABELA, URB MED ESTELA, URBAN INTERM NACHO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS M&amp;J (2), ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>FORMACION KIDS, KIDS PATRI, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>DH INTERM ISABELA, HH INICIO - INTERM PAULA &amp; ADRI, URBAN INTERM NACHO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>URB MED ESTELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN POLO, URB MED ESTELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>CHOREO CLASS INTERM ARI, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>HH AVANZADO ADRIAN, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>DH INTERM ISABELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM INI PATRI, FORMACION KIDS, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>KIDS 4 ROCIO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>URB INICIO ESTEFANIA, URBAN INI NEREA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM MED PATRI, FORMACION KIDS, URB MED ESTELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM INI PATRI, COM MED DIEGO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM MED DIEGO, COM MED JUANJE, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM MED JUANJE, URB MED ESTELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS L&amp;M, DH INICIO ISABELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, COM MED DIEGO, URBAN INTERM NACHO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN POLO, COM AVAN JUANJE, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN JUANJE, CONT YANNICK, ESTELA AVANZADO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>DH INICIO ISABELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>HEELS POLO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, CHOREO CLASS INTERM ARI, COM INICIO DIEGO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM MED JUANJE, URBAN INI NEREA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM MED PATRI, URB MED ESTELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>INTENSIVOS DE VERANO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, COM MED DIEGO, URBAN INICIO ERIC, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN POLO, HEELS POLO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN JUANJE, DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO, INTENSIVOS DE VERANO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN POLO, DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, CHOREO CLASS INTERM ARI, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS M&amp;J (2), DH QUEEN ORI &amp; CRIS, ESTELA AVANZADO, HEELS POLO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM MED JUANJE, URB MED ESTELA, URBAN INTERM NACHO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM INI PATRI, URBAN INI NEREA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, URBAN INTERM NACHO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS M&amp;J (2), CHOREO CLASS INTERM ARI, CONT YANNICK, DH INICIO ISABELA, HEELS POLO, URB MED ESTELA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM AVAN POLO, DH QUEEN ORI &amp; CRIS, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, HH INICIO PAULA, URBAN INTERM NACHO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>CHOREO CLASS INTERM ARI, COM MED JUANJE, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>COM INI PATRI, URBAN INTERM NEREA, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>CONT YANNICK, DH INTERM ISABELA, URBAN INTERMEDIO ROCIO, ANTIGUO ALUMNO</t>
+  </si>
+  <si>
+    <t>ASISTENCIAS V&amp;S, COM INICIO DIEGO, URBAN INI NEREA, ANTIGUO ALUMNO</t>
   </si>
 </sst>
 </file>
@@ -3295,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B377" sqref="B377"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3311,25 +3224,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>963</v>
+        <v>845</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>959</v>
+        <v>841</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>960</v>
+        <v>842</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>961</v>
+        <v>843</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>962</v>
+        <v>844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>957</v>
+        <v>839</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>958</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3346,7 +3259,7 @@
         <v>513</v>
       </c>
       <c r="F2" t="s">
-        <v>596</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3360,10 +3273,10 @@
         <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3377,10 +3290,10 @@
         <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>515</v>
+        <v>934</v>
       </c>
       <c r="F4" t="s">
-        <v>598</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3394,10 +3307,10 @@
         <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F5" t="s">
-        <v>599</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3411,10 +3324,10 @@
         <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F6" t="s">
-        <v>600</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3428,10 +3341,10 @@
         <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>518</v>
+        <v>914</v>
       </c>
       <c r="F7" t="s">
-        <v>601</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3445,10 +3358,10 @@
         <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>519</v>
+        <v>933</v>
       </c>
       <c r="F8" t="s">
-        <v>602</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3461,11 +3374,11 @@
       <c r="C9" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>520</v>
+      <c r="E9" t="s">
+        <v>907</v>
       </c>
       <c r="F9" t="s">
-        <v>603</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3479,10 +3392,10 @@
         <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F10" t="s">
-        <v>604</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3496,10 +3409,10 @@
         <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F11" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3513,10 +3426,10 @@
         <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>870</v>
       </c>
       <c r="F12" t="s">
-        <v>606</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3530,10 +3443,10 @@
         <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F13" t="s">
-        <v>607</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3547,10 +3460,10 @@
         <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>886</v>
       </c>
       <c r="F14" t="s">
-        <v>608</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3564,10 +3477,10 @@
         <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>948</v>
+        <v>888</v>
       </c>
       <c r="F15" t="s">
-        <v>609</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3581,10 +3494,10 @@
         <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>525</v>
+        <v>932</v>
       </c>
       <c r="F16" t="s">
-        <v>610</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3598,10 +3511,10 @@
         <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F17" t="s">
-        <v>611</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3615,10 +3528,10 @@
         <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F18" t="s">
-        <v>612</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3632,10 +3545,10 @@
         <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>526</v>
+        <v>930</v>
       </c>
       <c r="F19" t="s">
-        <v>613</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3649,10 +3562,10 @@
         <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F20" t="s">
-        <v>614</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3666,10 +3579,10 @@
         <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F21" t="s">
-        <v>615</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3686,7 +3599,7 @@
         <v>513</v>
       </c>
       <c r="F22" t="s">
-        <v>616</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3700,10 +3613,10 @@
         <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>527</v>
+        <v>931</v>
       </c>
       <c r="F23" t="s">
-        <v>617</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3717,10 +3630,10 @@
         <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F24" t="s">
-        <v>607</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3734,13 +3647,13 @@
         <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F25" t="s">
-        <v>618</v>
-      </c>
-      <c r="G25" t="s">
-        <v>919</v>
+        <v>538</v>
+      </c>
+      <c r="G25">
+        <v>678300663</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3753,11 +3666,11 @@
       <c r="C26" t="s">
         <v>195</v>
       </c>
-      <c r="E26" t="s">
-        <v>526</v>
+      <c r="E26" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="F26" t="s">
-        <v>619</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3771,10 +3684,10 @@
         <v>196</v>
       </c>
       <c r="E27" t="s">
-        <v>528</v>
+        <v>862</v>
       </c>
       <c r="F27" t="s">
-        <v>620</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3788,13 +3701,13 @@
         <v>197</v>
       </c>
       <c r="E28" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F28" t="s">
-        <v>621</v>
-      </c>
-      <c r="G28" t="s">
-        <v>920</v>
+        <v>541</v>
+      </c>
+      <c r="G28">
+        <v>657019740</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3808,13 +3721,13 @@
         <v>198</v>
       </c>
       <c r="E29" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F29" t="s">
-        <v>622</v>
-      </c>
-      <c r="G29" t="s">
-        <v>921</v>
+        <v>542</v>
+      </c>
+      <c r="G29">
+        <v>667064282</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3827,11 +3740,11 @@
       <c r="C30" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>948</v>
+      <c r="E30" t="s">
+        <v>888</v>
       </c>
       <c r="F30" t="s">
-        <v>623</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -3848,7 +3761,7 @@
         <v>513</v>
       </c>
       <c r="F31" t="s">
-        <v>624</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -3862,10 +3775,10 @@
         <v>201</v>
       </c>
       <c r="E32" t="s">
-        <v>949</v>
+        <v>911</v>
       </c>
       <c r="F32" t="s">
-        <v>625</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3879,10 +3792,10 @@
         <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>526</v>
+        <v>930</v>
       </c>
       <c r="F33" t="s">
-        <v>626</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3896,10 +3809,10 @@
         <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F34" t="s">
-        <v>627</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3913,10 +3826,10 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F35" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3930,10 +3843,10 @@
         <v>205</v>
       </c>
       <c r="E36" t="s">
-        <v>531</v>
+        <v>900</v>
       </c>
       <c r="F36" t="s">
-        <v>629</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3947,10 +3860,10 @@
         <v>206</v>
       </c>
       <c r="E37" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="F37" t="s">
-        <v>629</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3964,10 +3877,10 @@
         <v>207</v>
       </c>
       <c r="E38" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F38" t="s">
-        <v>630</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3981,10 +3894,10 @@
         <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F39" t="s">
-        <v>631</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3998,10 +3911,10 @@
         <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="F40" t="s">
-        <v>632</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4015,10 +3928,10 @@
         <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F41" t="s">
-        <v>633</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -4032,10 +3945,10 @@
         <v>211</v>
       </c>
       <c r="E42" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F42" t="s">
-        <v>634</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -4049,10 +3962,10 @@
         <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F43" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -4066,10 +3979,10 @@
         <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>535</v>
+        <v>928</v>
       </c>
       <c r="F44" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -4083,10 +3996,10 @@
         <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>948</v>
+        <v>888</v>
       </c>
       <c r="F45" t="s">
-        <v>636</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -4100,13 +4013,13 @@
         <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F46" t="s">
-        <v>637</v>
-      </c>
-      <c r="G46" t="s">
-        <v>922</v>
+        <v>557</v>
+      </c>
+      <c r="G46">
+        <v>658550480</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -4120,10 +4033,10 @@
         <v>216</v>
       </c>
       <c r="E47" t="s">
-        <v>518</v>
+        <v>914</v>
       </c>
       <c r="F47" t="s">
-        <v>638</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -4137,10 +4050,10 @@
         <v>217</v>
       </c>
       <c r="E48" t="s">
-        <v>536</v>
+        <v>864</v>
       </c>
       <c r="F48" t="s">
-        <v>639</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -4154,10 +4067,10 @@
         <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>537</v>
+        <v>927</v>
       </c>
       <c r="F49" t="s">
-        <v>640</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -4171,10 +4084,10 @@
         <v>219</v>
       </c>
       <c r="E50" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F50" t="s">
-        <v>641</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -4188,7 +4101,7 @@
         <v>220</v>
       </c>
       <c r="E51" t="s">
-        <v>539</v>
+        <v>889</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -4202,10 +4115,10 @@
         <v>221</v>
       </c>
       <c r="E52" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F52" t="s">
-        <v>642</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -4219,10 +4132,10 @@
         <v>222</v>
       </c>
       <c r="E53" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F53" t="s">
-        <v>643</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -4236,10 +4149,10 @@
         <v>223</v>
       </c>
       <c r="E54" t="s">
-        <v>540</v>
+        <v>913</v>
       </c>
       <c r="F54" t="s">
-        <v>644</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -4256,7 +4169,7 @@
         <v>513</v>
       </c>
       <c r="F55" t="s">
-        <v>645</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -4270,10 +4183,10 @@
         <v>225</v>
       </c>
       <c r="E56" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F56" t="s">
-        <v>646</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -4287,10 +4200,10 @@
         <v>226</v>
       </c>
       <c r="E57" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F57" t="s">
-        <v>647</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -4304,10 +4217,10 @@
         <v>227</v>
       </c>
       <c r="E58" t="s">
-        <v>522</v>
+        <v>870</v>
       </c>
       <c r="F58" t="s">
-        <v>648</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -4324,7 +4237,7 @@
         <v>513</v>
       </c>
       <c r="F59" t="s">
-        <v>649</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -4338,10 +4251,10 @@
         <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F60" t="s">
-        <v>650</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -4355,10 +4268,10 @@
         <v>230</v>
       </c>
       <c r="E61" t="s">
-        <v>543</v>
+        <v>926</v>
       </c>
       <c r="F61" t="s">
-        <v>651</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -4372,13 +4285,13 @@
         <v>231</v>
       </c>
       <c r="E62" t="s">
-        <v>544</v>
+        <v>875</v>
       </c>
       <c r="F62" t="s">
-        <v>652</v>
-      </c>
-      <c r="G62" t="s">
-        <v>923</v>
+        <v>572</v>
+      </c>
+      <c r="G62">
+        <v>640285163</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4392,13 +4305,13 @@
         <v>232</v>
       </c>
       <c r="E63" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F63" t="s">
-        <v>652</v>
-      </c>
-      <c r="G63" t="s">
-        <v>923</v>
+        <v>572</v>
+      </c>
+      <c r="G63">
+        <v>640285163</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -4412,13 +4325,13 @@
         <v>233</v>
       </c>
       <c r="E64" t="s">
-        <v>531</v>
+        <v>900</v>
       </c>
       <c r="F64" t="s">
-        <v>653</v>
-      </c>
-      <c r="G64" t="s">
-        <v>924</v>
+        <v>573</v>
+      </c>
+      <c r="G64">
+        <v>616572616</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4432,10 +4345,10 @@
         <v>234</v>
       </c>
       <c r="E65" t="s">
-        <v>531</v>
+        <v>900</v>
       </c>
       <c r="F65" t="s">
-        <v>654</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4449,10 +4362,10 @@
         <v>235</v>
       </c>
       <c r="E66" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F66" t="s">
-        <v>655</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4466,10 +4379,10 @@
         <v>236</v>
       </c>
       <c r="E67" t="s">
-        <v>545</v>
+        <v>858</v>
       </c>
       <c r="F67" t="s">
-        <v>656</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4483,10 +4396,10 @@
         <v>237</v>
       </c>
       <c r="E68" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F68" t="s">
-        <v>657</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4500,10 +4413,10 @@
         <v>238</v>
       </c>
       <c r="E69" t="s">
-        <v>546</v>
+        <v>925</v>
       </c>
       <c r="F69" t="s">
-        <v>657</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4517,10 +4430,10 @@
         <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>545</v>
+        <v>858</v>
       </c>
       <c r="F70" t="s">
-        <v>658</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -4534,10 +4447,10 @@
         <v>240</v>
       </c>
       <c r="E71" t="s">
-        <v>547</v>
+        <v>884</v>
       </c>
       <c r="F71" t="s">
-        <v>659</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4551,10 +4464,10 @@
         <v>241</v>
       </c>
       <c r="E72" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F72" t="s">
-        <v>660</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -4568,13 +4481,13 @@
         <v>242</v>
       </c>
       <c r="E73" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F73" t="s">
-        <v>661</v>
-      </c>
-      <c r="G73" t="s">
-        <v>925</v>
+        <v>581</v>
+      </c>
+      <c r="G73">
+        <v>656547274</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -4588,10 +4501,10 @@
         <v>243</v>
       </c>
       <c r="E74" t="s">
-        <v>548</v>
+        <v>924</v>
       </c>
       <c r="F74" t="s">
-        <v>662</v>
+        <v>582</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4605,10 +4518,10 @@
         <v>244</v>
       </c>
       <c r="E75" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="F75" t="s">
-        <v>663</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -4622,10 +4535,10 @@
         <v>245</v>
       </c>
       <c r="E76" t="s">
-        <v>550</v>
+        <v>923</v>
       </c>
       <c r="F76" t="s">
-        <v>664</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -4639,10 +4552,10 @@
         <v>246</v>
       </c>
       <c r="E77" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F77" t="s">
-        <v>665</v>
+        <v>585</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4656,10 +4569,10 @@
         <v>247</v>
       </c>
       <c r="E78" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F78" t="s">
-        <v>666</v>
+        <v>586</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -4673,10 +4586,10 @@
         <v>248</v>
       </c>
       <c r="E79" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F79" t="s">
-        <v>667</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4690,10 +4603,10 @@
         <v>249</v>
       </c>
       <c r="E80" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F80" t="s">
-        <v>668</v>
+        <v>588</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4710,7 +4623,7 @@
         <v>513</v>
       </c>
       <c r="F81" t="s">
-        <v>669</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4724,10 +4637,10 @@
         <v>251</v>
       </c>
       <c r="E82" t="s">
-        <v>951</v>
+        <v>922</v>
       </c>
       <c r="F82" t="s">
-        <v>670</v>
+        <v>590</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4741,10 +4654,10 @@
         <v>252</v>
       </c>
       <c r="E83" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F83" t="s">
-        <v>671</v>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4758,10 +4671,10 @@
         <v>253</v>
       </c>
       <c r="E84" t="s">
-        <v>551</v>
+        <v>847</v>
       </c>
       <c r="F84" t="s">
-        <v>672</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4775,10 +4688,10 @@
         <v>254</v>
       </c>
       <c r="E85" t="s">
-        <v>552</v>
+        <v>878</v>
       </c>
       <c r="F85" t="s">
-        <v>673</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4792,10 +4705,10 @@
         <v>255</v>
       </c>
       <c r="E86" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F86" t="s">
-        <v>674</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -4809,10 +4722,10 @@
         <v>256</v>
       </c>
       <c r="E87" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F87" t="s">
-        <v>675</v>
+        <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4826,10 +4739,10 @@
         <v>254</v>
       </c>
       <c r="E88" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F88" t="s">
-        <v>676</v>
+        <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4843,10 +4756,10 @@
         <v>257</v>
       </c>
       <c r="E89" t="s">
-        <v>948</v>
+        <v>888</v>
       </c>
       <c r="F89" t="s">
-        <v>677</v>
+        <v>597</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4860,10 +4773,10 @@
         <v>258</v>
       </c>
       <c r="E90" t="s">
-        <v>553</v>
+        <v>921</v>
       </c>
       <c r="F90" t="s">
-        <v>678</v>
+        <v>598</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -4877,13 +4790,13 @@
         <v>259</v>
       </c>
       <c r="E91" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="F91" t="s">
-        <v>679</v>
-      </c>
-      <c r="G91" t="s">
-        <v>680</v>
+        <v>599</v>
+      </c>
+      <c r="G91">
+        <v>665804712</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4900,7 +4813,7 @@
         <v>513</v>
       </c>
       <c r="F92" t="s">
-        <v>680</v>
+        <v>600</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4914,13 +4827,13 @@
         <v>261</v>
       </c>
       <c r="E93" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F93" t="s">
-        <v>681</v>
-      </c>
-      <c r="G93" t="s">
-        <v>926</v>
+        <v>601</v>
+      </c>
+      <c r="G93">
+        <v>627345245</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4934,10 +4847,10 @@
         <v>262</v>
       </c>
       <c r="E94" t="s">
-        <v>952</v>
+        <v>920</v>
       </c>
       <c r="F94" t="s">
-        <v>682</v>
+        <v>602</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -4951,10 +4864,10 @@
         <v>263</v>
       </c>
       <c r="E95" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F95" t="s">
-        <v>683</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -4968,7 +4881,7 @@
         <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>555</v>
+        <v>873</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4982,10 +4895,10 @@
         <v>265</v>
       </c>
       <c r="E97" t="s">
-        <v>556</v>
+        <v>919</v>
       </c>
       <c r="F97" t="s">
-        <v>684</v>
+        <v>604</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -4999,10 +4912,10 @@
         <v>266</v>
       </c>
       <c r="E98" t="s">
-        <v>557</v>
+        <v>918</v>
       </c>
       <c r="F98" t="s">
-        <v>685</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -5016,10 +4929,10 @@
         <v>267</v>
       </c>
       <c r="E99" t="s">
-        <v>540</v>
+        <v>913</v>
       </c>
       <c r="F99" t="s">
-        <v>686</v>
+        <v>606</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -5033,10 +4946,10 @@
         <v>268</v>
       </c>
       <c r="E100" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F100" t="s">
-        <v>687</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -5050,10 +4963,10 @@
         <v>269</v>
       </c>
       <c r="E101" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F101" t="s">
-        <v>687</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -5067,10 +4980,10 @@
         <v>270</v>
       </c>
       <c r="E102" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F102" t="s">
-        <v>688</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -5084,7 +4997,7 @@
         <v>271</v>
       </c>
       <c r="E103" t="s">
-        <v>539</v>
+        <v>889</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -5098,10 +5011,10 @@
         <v>272</v>
       </c>
       <c r="E104" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F104" t="s">
-        <v>689</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -5115,10 +5028,10 @@
         <v>273</v>
       </c>
       <c r="E105" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F105" t="s">
-        <v>690</v>
+        <v>610</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -5132,10 +5045,10 @@
         <v>274</v>
       </c>
       <c r="E106" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F106" t="s">
-        <v>691</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -5152,7 +5065,7 @@
         <v>513</v>
       </c>
       <c r="F107" t="s">
-        <v>692</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -5166,10 +5079,10 @@
         <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>558</v>
+        <v>917</v>
       </c>
       <c r="F108" t="s">
-        <v>693</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -5183,13 +5096,13 @@
         <v>277</v>
       </c>
       <c r="E109" t="s">
-        <v>559</v>
+        <v>916</v>
       </c>
       <c r="F109" t="s">
-        <v>694</v>
-      </c>
-      <c r="G109" t="s">
-        <v>927</v>
+        <v>614</v>
+      </c>
+      <c r="G109">
+        <v>637369915</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -5203,10 +5116,10 @@
         <v>278</v>
       </c>
       <c r="E110" t="s">
-        <v>560</v>
+        <v>915</v>
       </c>
       <c r="F110" t="s">
-        <v>695</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -5220,10 +5133,10 @@
         <v>279</v>
       </c>
       <c r="E111" t="s">
-        <v>518</v>
+        <v>914</v>
       </c>
       <c r="F111" t="s">
-        <v>696</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -5237,10 +5150,10 @@
         <v>280</v>
       </c>
       <c r="E112" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F112" t="s">
-        <v>697</v>
+        <v>617</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -5257,7 +5170,7 @@
         <v>513</v>
       </c>
       <c r="F113" t="s">
-        <v>698</v>
+        <v>618</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -5271,10 +5184,10 @@
         <v>282</v>
       </c>
       <c r="E114" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F114" t="s">
-        <v>699</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -5288,7 +5201,7 @@
         <v>283</v>
       </c>
       <c r="E115" t="s">
-        <v>555</v>
+        <v>873</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -5305,7 +5218,7 @@
         <v>513</v>
       </c>
       <c r="F116" t="s">
-        <v>700</v>
+        <v>620</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -5319,10 +5232,10 @@
         <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F117" t="s">
-        <v>701</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -5336,10 +5249,10 @@
         <v>286</v>
       </c>
       <c r="E118" t="s">
-        <v>540</v>
+        <v>913</v>
       </c>
       <c r="F118" t="s">
-        <v>702</v>
+        <v>622</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -5353,13 +5266,13 @@
         <v>287</v>
       </c>
       <c r="E119" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F119" t="s">
-        <v>703</v>
-      </c>
-      <c r="G119" t="s">
-        <v>830</v>
+        <v>623</v>
+      </c>
+      <c r="G119">
+        <v>630186816</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -5373,10 +5286,10 @@
         <v>288</v>
       </c>
       <c r="E120" t="s">
-        <v>561</v>
+        <v>912</v>
       </c>
       <c r="F120" t="s">
-        <v>704</v>
+        <v>624</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -5390,10 +5303,10 @@
         <v>289</v>
       </c>
       <c r="E121" t="s">
-        <v>562</v>
+        <v>901</v>
       </c>
       <c r="F121" t="s">
-        <v>705</v>
+        <v>625</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -5407,13 +5320,13 @@
         <v>290</v>
       </c>
       <c r="E122" t="s">
-        <v>544</v>
+        <v>875</v>
       </c>
       <c r="F122" t="s">
-        <v>706</v>
-      </c>
-      <c r="G122" t="s">
-        <v>928</v>
+        <v>626</v>
+      </c>
+      <c r="G122">
+        <v>655953926</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -5427,10 +5340,10 @@
         <v>291</v>
       </c>
       <c r="E123" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F123" t="s">
-        <v>707</v>
+        <v>627</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -5444,10 +5357,10 @@
         <v>292</v>
       </c>
       <c r="E124" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F124" t="s">
-        <v>708</v>
+        <v>628</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -5461,10 +5374,10 @@
         <v>293</v>
       </c>
       <c r="E125" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F125" t="s">
-        <v>709</v>
+        <v>629</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -5478,10 +5391,10 @@
         <v>294</v>
       </c>
       <c r="E126" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F126" t="s">
-        <v>710</v>
+        <v>630</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -5495,10 +5408,10 @@
         <v>295</v>
       </c>
       <c r="E127" t="s">
-        <v>949</v>
+        <v>911</v>
       </c>
       <c r="F127" t="s">
-        <v>711</v>
+        <v>631</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -5512,7 +5425,7 @@
         <v>296</v>
       </c>
       <c r="E128" t="s">
-        <v>555</v>
+        <v>873</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -5526,10 +5439,10 @@
         <v>297</v>
       </c>
       <c r="E129" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F129" t="s">
-        <v>712</v>
+        <v>632</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -5543,10 +5456,10 @@
         <v>298</v>
       </c>
       <c r="E130" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F130" t="s">
-        <v>713</v>
+        <v>633</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -5560,10 +5473,10 @@
         <v>299</v>
       </c>
       <c r="E131" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F131" t="s">
-        <v>714</v>
+        <v>634</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -5577,10 +5490,10 @@
         <v>300</v>
       </c>
       <c r="E132" t="s">
-        <v>536</v>
+        <v>864</v>
       </c>
       <c r="F132" t="s">
-        <v>715</v>
+        <v>635</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -5594,10 +5507,10 @@
         <v>301</v>
       </c>
       <c r="E133" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F133" t="s">
-        <v>716</v>
+        <v>636</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -5611,10 +5524,10 @@
         <v>302</v>
       </c>
       <c r="E134" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F134" t="s">
-        <v>717</v>
+        <v>637</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -5628,10 +5541,10 @@
         <v>303</v>
       </c>
       <c r="E135" t="s">
-        <v>563</v>
+        <v>910</v>
       </c>
       <c r="F135" t="s">
-        <v>718</v>
+        <v>638</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -5648,7 +5561,7 @@
         <v>513</v>
       </c>
       <c r="F136" t="s">
-        <v>719</v>
+        <v>639</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -5662,10 +5575,10 @@
         <v>305</v>
       </c>
       <c r="E137" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F137" t="s">
-        <v>720</v>
+        <v>640</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -5679,10 +5592,10 @@
         <v>306</v>
       </c>
       <c r="E138" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F138" t="s">
-        <v>721</v>
+        <v>641</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5696,10 +5609,10 @@
         <v>307</v>
       </c>
       <c r="E139" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F139" t="s">
-        <v>722</v>
+        <v>642</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -5716,7 +5629,7 @@
         <v>513</v>
       </c>
       <c r="F140" t="s">
-        <v>723</v>
+        <v>643</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -5730,13 +5643,13 @@
         <v>309</v>
       </c>
       <c r="E141" t="s">
-        <v>528</v>
+        <v>862</v>
       </c>
       <c r="F141" t="s">
-        <v>724</v>
-      </c>
-      <c r="G141" t="s">
-        <v>929</v>
+        <v>644</v>
+      </c>
+      <c r="G141">
+        <v>623927029</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -5747,7 +5660,7 @@
         <v>61</v>
       </c>
       <c r="E142" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -5761,13 +5674,13 @@
         <v>310</v>
       </c>
       <c r="E143" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F143" t="s">
-        <v>725</v>
-      </c>
-      <c r="G143" t="s">
-        <v>930</v>
+        <v>645</v>
+      </c>
+      <c r="G143">
+        <v>609344139</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -5781,10 +5694,10 @@
         <v>311</v>
       </c>
       <c r="E144" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F144" t="s">
-        <v>726</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5798,13 +5711,13 @@
         <v>312</v>
       </c>
       <c r="E145" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F145" t="s">
-        <v>727</v>
-      </c>
-      <c r="G145" t="s">
-        <v>931</v>
+        <v>647</v>
+      </c>
+      <c r="G145">
+        <v>659412754</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -5818,10 +5731,10 @@
         <v>313</v>
       </c>
       <c r="E146" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F146" t="s">
-        <v>728</v>
+        <v>648</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -5835,10 +5748,10 @@
         <v>314</v>
       </c>
       <c r="E147" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F147" t="s">
-        <v>729</v>
+        <v>649</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -5852,10 +5765,10 @@
         <v>315</v>
       </c>
       <c r="E148" t="s">
-        <v>564</v>
+        <v>909</v>
       </c>
       <c r="F148" t="s">
-        <v>730</v>
+        <v>650</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -5869,10 +5782,10 @@
         <v>316</v>
       </c>
       <c r="E149" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="F149" t="s">
-        <v>731</v>
+        <v>651</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5886,10 +5799,10 @@
         <v>317</v>
       </c>
       <c r="E150" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F150" t="s">
-        <v>732</v>
+        <v>652</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5903,10 +5816,10 @@
         <v>318</v>
       </c>
       <c r="E151" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F151" t="s">
-        <v>733</v>
+        <v>653</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5920,7 +5833,7 @@
         <v>319</v>
       </c>
       <c r="E152" t="s">
-        <v>565</v>
+        <v>908</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5934,7 +5847,7 @@
         <v>320</v>
       </c>
       <c r="E153" t="s">
-        <v>552</v>
+        <v>878</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -5948,10 +5861,10 @@
         <v>309</v>
       </c>
       <c r="E154" t="s">
-        <v>520</v>
+        <v>907</v>
       </c>
       <c r="F154" t="s">
-        <v>734</v>
+        <v>654</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -5965,7 +5878,7 @@
         <v>321</v>
       </c>
       <c r="E155" t="s">
-        <v>539</v>
+        <v>889</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -5979,10 +5892,10 @@
         <v>322</v>
       </c>
       <c r="E156" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F156" t="s">
-        <v>735</v>
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -5996,10 +5909,10 @@
         <v>323</v>
       </c>
       <c r="E157" t="s">
-        <v>566</v>
+        <v>906</v>
       </c>
       <c r="F157" t="s">
-        <v>736</v>
+        <v>656</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -6013,10 +5926,10 @@
         <v>324</v>
       </c>
       <c r="E158" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F158" t="s">
-        <v>737</v>
+        <v>657</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -6030,7 +5943,7 @@
         <v>325</v>
       </c>
       <c r="E159" t="s">
-        <v>555</v>
+        <v>873</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -6044,10 +5957,10 @@
         <v>326</v>
       </c>
       <c r="E160" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F160" t="s">
-        <v>738</v>
+        <v>658</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -6061,13 +5974,13 @@
         <v>327</v>
       </c>
       <c r="E161" t="s">
-        <v>567</v>
+        <v>905</v>
       </c>
       <c r="F161" t="s">
-        <v>739</v>
-      </c>
-      <c r="G161" t="s">
-        <v>809</v>
+        <v>659</v>
+      </c>
+      <c r="G161">
+        <v>651358512</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -6081,10 +5994,10 @@
         <v>328</v>
       </c>
       <c r="E162" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F162" t="s">
-        <v>740</v>
+        <v>660</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -6098,10 +6011,10 @@
         <v>329</v>
       </c>
       <c r="E163" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F163" t="s">
-        <v>741</v>
+        <v>661</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -6115,10 +6028,10 @@
         <v>330</v>
       </c>
       <c r="E164" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F164" t="s">
-        <v>742</v>
+        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -6132,10 +6045,10 @@
         <v>331</v>
       </c>
       <c r="E165" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F165" t="s">
-        <v>743</v>
+        <v>663</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -6149,10 +6062,10 @@
         <v>332</v>
       </c>
       <c r="E166" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F166" t="s">
-        <v>744</v>
+        <v>664</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -6166,10 +6079,10 @@
         <v>333</v>
       </c>
       <c r="E167" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F167" t="s">
-        <v>745</v>
+        <v>665</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -6183,10 +6096,10 @@
         <v>334</v>
       </c>
       <c r="E168" t="s">
-        <v>948</v>
+        <v>888</v>
       </c>
       <c r="F168" t="s">
-        <v>745</v>
+        <v>665</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -6200,10 +6113,10 @@
         <v>335</v>
       </c>
       <c r="E169" t="s">
-        <v>551</v>
+        <v>847</v>
       </c>
       <c r="F169" t="s">
-        <v>746</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -6217,7 +6130,7 @@
         <v>336</v>
       </c>
       <c r="E170" t="s">
-        <v>555</v>
+        <v>873</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -6231,10 +6144,10 @@
         <v>337</v>
       </c>
       <c r="E171" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F171" t="s">
-        <v>747</v>
+        <v>667</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -6248,7 +6161,7 @@
         <v>338</v>
       </c>
       <c r="E172" t="s">
-        <v>555</v>
+        <v>873</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -6262,10 +6175,10 @@
         <v>339</v>
       </c>
       <c r="E173" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F173" t="s">
-        <v>748</v>
+        <v>668</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -6279,10 +6192,10 @@
         <v>340</v>
       </c>
       <c r="E174" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F174" t="s">
-        <v>749</v>
+        <v>669</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -6296,10 +6209,10 @@
         <v>341</v>
       </c>
       <c r="E175" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F175" t="s">
-        <v>750</v>
+        <v>670</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -6313,10 +6226,10 @@
         <v>342</v>
       </c>
       <c r="E176" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="F176" t="s">
-        <v>751</v>
+        <v>671</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -6330,10 +6243,10 @@
         <v>343</v>
       </c>
       <c r="E177" t="s">
-        <v>562</v>
+        <v>901</v>
       </c>
       <c r="F177" t="s">
-        <v>752</v>
+        <v>672</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -6347,7 +6260,7 @@
         <v>344</v>
       </c>
       <c r="E178" t="s">
-        <v>539</v>
+        <v>889</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -6361,10 +6274,10 @@
         <v>345</v>
       </c>
       <c r="E179" t="s">
-        <v>568</v>
+        <v>897</v>
       </c>
       <c r="F179" t="s">
-        <v>753</v>
+        <v>673</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -6378,10 +6291,10 @@
         <v>346</v>
       </c>
       <c r="E180" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F180" t="s">
-        <v>754</v>
+        <v>674</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -6395,10 +6308,10 @@
         <v>347</v>
       </c>
       <c r="E181" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F181" t="s">
-        <v>755</v>
+        <v>675</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -6412,10 +6325,10 @@
         <v>348</v>
       </c>
       <c r="E182" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F182" t="s">
-        <v>756</v>
+        <v>676</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -6429,10 +6342,10 @@
         <v>349</v>
       </c>
       <c r="E183" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F183" t="s">
-        <v>757</v>
+        <v>677</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -6446,10 +6359,10 @@
         <v>350</v>
       </c>
       <c r="E184" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F184" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -6463,13 +6376,13 @@
         <v>351</v>
       </c>
       <c r="E185" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F185" t="s">
-        <v>759</v>
-      </c>
-      <c r="G185" t="s">
-        <v>831</v>
+        <v>679</v>
+      </c>
+      <c r="G185">
+        <v>619186924</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -6483,10 +6396,10 @@
         <v>352</v>
       </c>
       <c r="E186" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F186" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -6500,10 +6413,10 @@
         <v>353</v>
       </c>
       <c r="E187" t="s">
-        <v>552</v>
+        <v>878</v>
       </c>
       <c r="F187" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -6517,10 +6430,10 @@
         <v>354</v>
       </c>
       <c r="E188" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F188" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -6534,10 +6447,10 @@
         <v>355</v>
       </c>
       <c r="E189" t="s">
-        <v>536</v>
+        <v>864</v>
       </c>
       <c r="F189" t="s">
-        <v>762</v>
+        <v>682</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -6551,10 +6464,10 @@
         <v>356</v>
       </c>
       <c r="E190" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="F190" t="s">
-        <v>763</v>
+        <v>683</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -6571,7 +6484,7 @@
         <v>513</v>
       </c>
       <c r="F191" t="s">
-        <v>764</v>
+        <v>684</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -6585,10 +6498,10 @@
         <v>358</v>
       </c>
       <c r="E192" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F192" t="s">
-        <v>765</v>
+        <v>685</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -6602,13 +6515,13 @@
         <v>359</v>
       </c>
       <c r="E193" t="s">
-        <v>544</v>
+        <v>875</v>
       </c>
       <c r="F193" t="s">
-        <v>766</v>
-      </c>
-      <c r="G193" t="s">
-        <v>932</v>
+        <v>686</v>
+      </c>
+      <c r="G193">
+        <v>644108807</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -6622,10 +6535,10 @@
         <v>360</v>
       </c>
       <c r="E194" t="s">
-        <v>569</v>
+        <v>899</v>
       </c>
       <c r="F194" t="s">
-        <v>767</v>
+        <v>687</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -6639,10 +6552,10 @@
         <v>361</v>
       </c>
       <c r="E195" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F195" t="s">
-        <v>767</v>
+        <v>687</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -6656,10 +6569,10 @@
         <v>362</v>
       </c>
       <c r="E196" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F196" t="s">
-        <v>768</v>
+        <v>688</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -6673,10 +6586,10 @@
         <v>363</v>
       </c>
       <c r="E197" t="s">
-        <v>570</v>
+        <v>904</v>
       </c>
       <c r="F197" t="s">
-        <v>769</v>
+        <v>689</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -6690,10 +6603,10 @@
         <v>182</v>
       </c>
       <c r="E198" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F198" t="s">
-        <v>770</v>
+        <v>690</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -6707,10 +6620,10 @@
         <v>364</v>
       </c>
       <c r="E199" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F199" t="s">
-        <v>771</v>
+        <v>691</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -6724,10 +6637,10 @@
         <v>365</v>
       </c>
       <c r="E200" t="s">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="F200" t="s">
-        <v>772</v>
+        <v>692</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -6741,13 +6654,13 @@
         <v>366</v>
       </c>
       <c r="E201" t="s">
-        <v>571</v>
+        <v>902</v>
       </c>
       <c r="F201" t="s">
-        <v>773</v>
-      </c>
-      <c r="G201" t="s">
-        <v>933</v>
+        <v>693</v>
+      </c>
+      <c r="G201">
+        <v>649428304</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -6761,7 +6674,7 @@
         <v>367</v>
       </c>
       <c r="E202" t="s">
-        <v>572</v>
+        <v>894</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -6775,10 +6688,10 @@
         <v>368</v>
       </c>
       <c r="E203" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F203" t="s">
-        <v>774</v>
+        <v>694</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -6792,10 +6705,10 @@
         <v>369</v>
       </c>
       <c r="E204" t="s">
-        <v>562</v>
+        <v>901</v>
       </c>
       <c r="F204" t="s">
-        <v>775</v>
+        <v>695</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -6809,10 +6722,10 @@
         <v>370</v>
       </c>
       <c r="E205" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F205" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -6826,10 +6739,10 @@
         <v>371</v>
       </c>
       <c r="E206" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F206" t="s">
-        <v>777</v>
+        <v>697</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -6843,10 +6756,10 @@
         <v>372</v>
       </c>
       <c r="E207" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F207" t="s">
-        <v>778</v>
+        <v>698</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6860,10 +6773,10 @@
         <v>373</v>
       </c>
       <c r="E208" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F208" t="s">
-        <v>779</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6877,10 +6790,10 @@
         <v>374</v>
       </c>
       <c r="E209" t="s">
-        <v>531</v>
+        <v>900</v>
       </c>
       <c r="F209" t="s">
-        <v>780</v>
+        <v>700</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6894,10 +6807,10 @@
         <v>360</v>
       </c>
       <c r="E210" t="s">
-        <v>569</v>
+        <v>899</v>
       </c>
       <c r="F210" t="s">
-        <v>767</v>
+        <v>687</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6911,10 +6824,10 @@
         <v>361</v>
       </c>
       <c r="E211" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F211" t="s">
-        <v>767</v>
+        <v>687</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6928,10 +6841,10 @@
         <v>375</v>
       </c>
       <c r="E212" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F212" t="s">
-        <v>781</v>
+        <v>701</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6945,10 +6858,10 @@
         <v>376</v>
       </c>
       <c r="E213" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F213" t="s">
-        <v>782</v>
+        <v>702</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6962,10 +6875,10 @@
         <v>377</v>
       </c>
       <c r="E214" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F214" t="s">
-        <v>783</v>
+        <v>703</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6979,10 +6892,10 @@
         <v>378</v>
       </c>
       <c r="E215" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F215" t="s">
-        <v>784</v>
+        <v>704</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6996,10 +6909,10 @@
         <v>379</v>
       </c>
       <c r="E216" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F216" t="s">
-        <v>785</v>
+        <v>705</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -7013,7 +6926,7 @@
         <v>380</v>
       </c>
       <c r="E217" t="s">
-        <v>539</v>
+        <v>889</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -7027,10 +6940,10 @@
         <v>381</v>
       </c>
       <c r="E218" t="s">
-        <v>953</v>
+        <v>898</v>
       </c>
       <c r="F218" t="s">
-        <v>786</v>
+        <v>706</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -7044,10 +6957,10 @@
         <v>382</v>
       </c>
       <c r="E219" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F219" t="s">
-        <v>787</v>
+        <v>707</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -7061,10 +6974,10 @@
         <v>383</v>
       </c>
       <c r="E220" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F220" t="s">
-        <v>788</v>
+        <v>708</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -7078,10 +6991,10 @@
         <v>384</v>
       </c>
       <c r="E221" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F221" t="s">
-        <v>789</v>
+        <v>709</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -7095,10 +7008,10 @@
         <v>385</v>
       </c>
       <c r="E222" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F222" t="s">
-        <v>790</v>
+        <v>710</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -7112,13 +7025,13 @@
         <v>386</v>
       </c>
       <c r="E223" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F223" t="s">
-        <v>791</v>
-      </c>
-      <c r="G223" t="s">
-        <v>934</v>
+        <v>711</v>
+      </c>
+      <c r="G223">
+        <v>643866922</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -7132,10 +7045,10 @@
         <v>387</v>
       </c>
       <c r="E224" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F224" t="s">
-        <v>792</v>
+        <v>712</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -7149,10 +7062,10 @@
         <v>388</v>
       </c>
       <c r="E225" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="F225" t="s">
-        <v>793</v>
+        <v>713</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -7166,10 +7079,10 @@
         <v>389</v>
       </c>
       <c r="E226" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="F226" t="s">
-        <v>794</v>
+        <v>714</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -7183,10 +7096,10 @@
         <v>274</v>
       </c>
       <c r="E227" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F227" t="s">
-        <v>691</v>
+        <v>611</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -7200,10 +7113,10 @@
         <v>182</v>
       </c>
       <c r="E228" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F228" t="s">
-        <v>795</v>
+        <v>715</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -7217,10 +7130,10 @@
         <v>390</v>
       </c>
       <c r="E229" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F229" t="s">
-        <v>796</v>
+        <v>716</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -7234,10 +7147,10 @@
         <v>391</v>
       </c>
       <c r="E230" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="F230" t="s">
-        <v>797</v>
+        <v>717</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -7251,10 +7164,10 @@
         <v>392</v>
       </c>
       <c r="E231" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F231" t="s">
-        <v>798</v>
+        <v>718</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -7268,7 +7181,7 @@
         <v>393</v>
       </c>
       <c r="E232" t="s">
-        <v>555</v>
+        <v>873</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -7285,7 +7198,7 @@
         <v>513</v>
       </c>
       <c r="F233" t="s">
-        <v>799</v>
+        <v>719</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -7299,13 +7212,13 @@
         <v>395</v>
       </c>
       <c r="E234" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F234" t="s">
-        <v>800</v>
-      </c>
-      <c r="G234" t="s">
-        <v>935</v>
+        <v>720</v>
+      </c>
+      <c r="G234">
+        <v>622745130</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -7319,10 +7232,10 @@
         <v>396</v>
       </c>
       <c r="E235" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F235" t="s">
-        <v>801</v>
+        <v>721</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -7336,10 +7249,10 @@
         <v>397</v>
       </c>
       <c r="E236" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F236" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -7353,10 +7266,10 @@
         <v>398</v>
       </c>
       <c r="E237" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F237" t="s">
-        <v>803</v>
+        <v>723</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -7370,10 +7283,10 @@
         <v>399</v>
       </c>
       <c r="E238" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="F238" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -7387,10 +7300,10 @@
         <v>400</v>
       </c>
       <c r="E239" t="s">
-        <v>568</v>
+        <v>897</v>
       </c>
       <c r="F239" t="s">
-        <v>805</v>
+        <v>725</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -7404,10 +7317,10 @@
         <v>401</v>
       </c>
       <c r="E240" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F240" t="s">
-        <v>805</v>
+        <v>725</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -7421,10 +7334,10 @@
         <v>402</v>
       </c>
       <c r="E241" t="s">
-        <v>575</v>
+        <v>896</v>
       </c>
       <c r="F241" t="s">
-        <v>806</v>
+        <v>726</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -7438,10 +7351,10 @@
         <v>403</v>
       </c>
       <c r="E242" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F242" t="s">
-        <v>807</v>
+        <v>727</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -7455,10 +7368,10 @@
         <v>404</v>
       </c>
       <c r="E243" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F243" t="s">
-        <v>808</v>
+        <v>728</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -7472,13 +7385,13 @@
         <v>327</v>
       </c>
       <c r="E244" t="s">
-        <v>576</v>
+        <v>895</v>
       </c>
       <c r="F244" t="s">
-        <v>809</v>
-      </c>
-      <c r="G244" t="s">
-        <v>936</v>
+        <v>729</v>
+      </c>
+      <c r="G244">
+        <v>622766344</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7492,10 +7405,10 @@
         <v>405</v>
       </c>
       <c r="E245" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F245" t="s">
-        <v>810</v>
+        <v>730</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -7509,10 +7422,10 @@
         <v>406</v>
       </c>
       <c r="E246" t="s">
-        <v>536</v>
+        <v>864</v>
       </c>
       <c r="F246" t="s">
-        <v>811</v>
+        <v>731</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7526,10 +7439,10 @@
         <v>407</v>
       </c>
       <c r="E247" t="s">
-        <v>577</v>
+        <v>868</v>
       </c>
       <c r="F247" t="s">
-        <v>812</v>
+        <v>732</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7543,10 +7456,10 @@
         <v>408</v>
       </c>
       <c r="E248" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F248" t="s">
-        <v>813</v>
+        <v>733</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -7560,7 +7473,7 @@
         <v>409</v>
       </c>
       <c r="E249" t="s">
-        <v>572</v>
+        <v>894</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -7574,13 +7487,13 @@
         <v>410</v>
       </c>
       <c r="E250" t="s">
-        <v>578</v>
+        <v>893</v>
       </c>
       <c r="F250" t="s">
-        <v>814</v>
-      </c>
-      <c r="G250" t="s">
-        <v>937</v>
+        <v>734</v>
+      </c>
+      <c r="G250">
+        <v>655095623</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7594,10 +7507,10 @@
         <v>411</v>
       </c>
       <c r="E251" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F251" t="s">
-        <v>815</v>
+        <v>735</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7611,13 +7524,13 @@
         <v>412</v>
       </c>
       <c r="E252" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F252" t="s">
-        <v>816</v>
-      </c>
-      <c r="G252" t="s">
-        <v>938</v>
+        <v>736</v>
+      </c>
+      <c r="G252">
+        <v>661633620</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7631,10 +7544,10 @@
         <v>413</v>
       </c>
       <c r="E253" t="s">
-        <v>954</v>
+        <v>892</v>
       </c>
       <c r="F253" t="s">
-        <v>817</v>
+        <v>737</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7648,10 +7561,10 @@
         <v>414</v>
       </c>
       <c r="E254" t="s">
-        <v>579</v>
+        <v>891</v>
       </c>
       <c r="F254" t="s">
-        <v>817</v>
+        <v>737</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7665,10 +7578,10 @@
         <v>415</v>
       </c>
       <c r="E255" t="s">
-        <v>545</v>
+        <v>858</v>
       </c>
       <c r="F255" t="s">
-        <v>818</v>
+        <v>738</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7682,10 +7595,10 @@
         <v>416</v>
       </c>
       <c r="E256" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F256" t="s">
-        <v>819</v>
+        <v>739</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7699,10 +7612,10 @@
         <v>417</v>
       </c>
       <c r="E257" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="F257" t="s">
-        <v>820</v>
+        <v>740</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7716,10 +7629,10 @@
         <v>418</v>
       </c>
       <c r="E258" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="F258" t="s">
-        <v>821</v>
+        <v>741</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7733,10 +7646,10 @@
         <v>419</v>
       </c>
       <c r="E259" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F259" t="s">
-        <v>822</v>
+        <v>742</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7750,10 +7663,10 @@
         <v>420</v>
       </c>
       <c r="E260" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F260" t="s">
-        <v>823</v>
+        <v>743</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7767,7 +7680,7 @@
         <v>421</v>
       </c>
       <c r="E261" t="s">
-        <v>552</v>
+        <v>878</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7781,10 +7694,10 @@
         <v>422</v>
       </c>
       <c r="E262" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F262" t="s">
-        <v>824</v>
+        <v>744</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7798,7 +7711,7 @@
         <v>423</v>
       </c>
       <c r="E263" t="s">
-        <v>539</v>
+        <v>889</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7812,10 +7725,10 @@
         <v>424</v>
       </c>
       <c r="E264" t="s">
-        <v>948</v>
+        <v>888</v>
       </c>
       <c r="F264" t="s">
-        <v>825</v>
+        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7829,10 +7742,10 @@
         <v>425</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F265" t="s">
-        <v>826</v>
+        <v>746</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -7846,10 +7759,10 @@
         <v>426</v>
       </c>
       <c r="E266" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F266" t="s">
-        <v>827</v>
+        <v>747</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -7863,10 +7776,10 @@
         <v>427</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F267" t="s">
-        <v>828</v>
+        <v>748</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -7880,10 +7793,10 @@
         <v>428</v>
       </c>
       <c r="E268" t="s">
-        <v>948</v>
+        <v>888</v>
       </c>
       <c r="F268" t="s">
-        <v>829</v>
+        <v>749</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -7897,10 +7810,10 @@
         <v>287</v>
       </c>
       <c r="E269" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F269" t="s">
-        <v>830</v>
+        <v>750</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -7914,13 +7827,13 @@
         <v>351</v>
       </c>
       <c r="E270" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F270" t="s">
-        <v>831</v>
-      </c>
-      <c r="G270" t="s">
-        <v>759</v>
+        <v>751</v>
+      </c>
+      <c r="G270">
+        <v>633358444</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -7934,10 +7847,10 @@
         <v>429</v>
       </c>
       <c r="E271" t="s">
-        <v>536</v>
+        <v>864</v>
       </c>
       <c r="F271" t="s">
-        <v>832</v>
+        <v>752</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -7954,7 +7867,7 @@
         <v>513</v>
       </c>
       <c r="F272" t="s">
-        <v>833</v>
+        <v>753</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -7968,10 +7881,10 @@
         <v>431</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F273" t="s">
-        <v>834</v>
+        <v>754</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -7985,10 +7898,10 @@
         <v>432</v>
       </c>
       <c r="E274" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F274" t="s">
-        <v>835</v>
+        <v>755</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -8002,10 +7915,10 @@
         <v>433</v>
       </c>
       <c r="E275" t="s">
-        <v>580</v>
+        <v>887</v>
       </c>
       <c r="F275" t="s">
-        <v>836</v>
+        <v>756</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -8019,13 +7932,13 @@
         <v>434</v>
       </c>
       <c r="E276" t="s">
-        <v>524</v>
+        <v>886</v>
       </c>
       <c r="F276" t="s">
-        <v>837</v>
-      </c>
-      <c r="G276" t="s">
-        <v>939</v>
+        <v>757</v>
+      </c>
+      <c r="G276">
+        <v>658771742</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -8039,10 +7952,10 @@
         <v>435</v>
       </c>
       <c r="E277" t="s">
-        <v>581</v>
+        <v>885</v>
       </c>
       <c r="F277" t="s">
-        <v>838</v>
+        <v>758</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -8056,10 +7969,10 @@
         <v>373</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F278" t="s">
-        <v>839</v>
+        <v>759</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -8073,10 +7986,10 @@
         <v>436</v>
       </c>
       <c r="E279" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F279" t="s">
-        <v>840</v>
+        <v>760</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -8090,10 +8003,10 @@
         <v>437</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>884</v>
       </c>
       <c r="F280" t="s">
-        <v>841</v>
+        <v>761</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -8107,10 +8020,10 @@
         <v>438</v>
       </c>
       <c r="E281" t="s">
-        <v>582</v>
+        <v>883</v>
       </c>
       <c r="F281" t="s">
-        <v>842</v>
+        <v>762</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -8124,10 +8037,10 @@
         <v>439</v>
       </c>
       <c r="E282" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F282" t="s">
-        <v>843</v>
+        <v>763</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -8141,10 +8054,10 @@
         <v>440</v>
       </c>
       <c r="E283" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F283" t="s">
-        <v>844</v>
+        <v>764</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -8158,10 +8071,10 @@
         <v>441</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F284" t="s">
-        <v>845</v>
+        <v>765</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -8175,10 +8088,10 @@
         <v>442</v>
       </c>
       <c r="E285" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F285" t="s">
-        <v>846</v>
+        <v>766</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -8192,10 +8105,10 @@
         <v>443</v>
       </c>
       <c r="E286" t="s">
-        <v>955</v>
+        <v>882</v>
       </c>
       <c r="F286" t="s">
-        <v>847</v>
+        <v>767</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -8209,10 +8122,10 @@
         <v>444</v>
       </c>
       <c r="E287" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F287" t="s">
-        <v>848</v>
+        <v>768</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -8226,7 +8139,7 @@
         <v>445</v>
       </c>
       <c r="E288" t="s">
-        <v>552</v>
+        <v>878</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -8240,10 +8153,10 @@
         <v>446</v>
       </c>
       <c r="E289" t="s">
-        <v>583</v>
+        <v>881</v>
       </c>
       <c r="F289" t="s">
-        <v>849</v>
+        <v>769</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -8257,13 +8170,13 @@
         <v>447</v>
       </c>
       <c r="E290" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F290" t="s">
-        <v>850</v>
-      </c>
-      <c r="G290" t="s">
-        <v>940</v>
+        <v>770</v>
+      </c>
+      <c r="G290">
+        <v>637014998</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -8277,10 +8190,10 @@
         <v>448</v>
       </c>
       <c r="E291" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F291" t="s">
-        <v>851</v>
+        <v>771</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -8294,13 +8207,13 @@
         <v>449</v>
       </c>
       <c r="E292" t="s">
-        <v>584</v>
+        <v>880</v>
       </c>
       <c r="F292" t="s">
-        <v>852</v>
-      </c>
-      <c r="G292" t="s">
-        <v>941</v>
+        <v>772</v>
+      </c>
+      <c r="G292">
+        <v>644140814</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -8314,10 +8227,10 @@
         <v>450</v>
       </c>
       <c r="E293" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F293" t="s">
-        <v>853</v>
+        <v>773</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -8331,10 +8244,10 @@
         <v>451</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>851</v>
       </c>
       <c r="F294" t="s">
-        <v>854</v>
+        <v>774</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -8348,10 +8261,10 @@
         <v>452</v>
       </c>
       <c r="E295" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F295" t="s">
-        <v>855</v>
+        <v>775</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -8365,10 +8278,10 @@
         <v>354</v>
       </c>
       <c r="E296" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F296" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -8382,10 +8295,10 @@
         <v>453</v>
       </c>
       <c r="E297" t="s">
-        <v>586</v>
+        <v>879</v>
       </c>
       <c r="F297" t="s">
-        <v>856</v>
+        <v>776</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -8399,10 +8312,10 @@
         <v>454</v>
       </c>
       <c r="E298" t="s">
-        <v>552</v>
+        <v>878</v>
       </c>
       <c r="F298" t="s">
-        <v>857</v>
+        <v>777</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -8416,13 +8329,13 @@
         <v>455</v>
       </c>
       <c r="E299" t="s">
-        <v>544</v>
+        <v>875</v>
       </c>
       <c r="F299" t="s">
-        <v>857</v>
-      </c>
-      <c r="G299" t="s">
-        <v>942</v>
+        <v>777</v>
+      </c>
+      <c r="G299">
+        <v>616741563</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -8436,10 +8349,10 @@
         <v>456</v>
       </c>
       <c r="E300" t="s">
-        <v>552</v>
+        <v>878</v>
       </c>
       <c r="F300" t="s">
-        <v>858</v>
+        <v>778</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -8453,10 +8366,10 @@
         <v>319</v>
       </c>
       <c r="E301" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F301" t="s">
-        <v>859</v>
+        <v>779</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
@@ -8470,10 +8383,10 @@
         <v>457</v>
       </c>
       <c r="E302" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F302" t="s">
-        <v>860</v>
+        <v>780</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
@@ -8487,13 +8400,13 @@
         <v>456</v>
       </c>
       <c r="E303" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F303" t="s">
-        <v>858</v>
-      </c>
-      <c r="G303" t="s">
-        <v>943</v>
+        <v>778</v>
+      </c>
+      <c r="G303">
+        <v>600075454</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -8507,10 +8420,10 @@
         <v>458</v>
       </c>
       <c r="E304" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F304" t="s">
-        <v>861</v>
+        <v>781</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -8524,10 +8437,10 @@
         <v>459</v>
       </c>
       <c r="E305" t="s">
-        <v>536</v>
+        <v>864</v>
       </c>
       <c r="F305" t="s">
-        <v>862</v>
+        <v>782</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -8541,10 +8454,10 @@
         <v>321</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>877</v>
       </c>
       <c r="F306" t="s">
-        <v>863</v>
+        <v>783</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -8558,10 +8471,10 @@
         <v>460</v>
       </c>
       <c r="E307" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F307" t="s">
-        <v>864</v>
+        <v>784</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -8575,10 +8488,10 @@
         <v>461</v>
       </c>
       <c r="E308" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F308" t="s">
-        <v>865</v>
+        <v>785</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -8592,10 +8505,10 @@
         <v>462</v>
       </c>
       <c r="E309" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F309" t="s">
-        <v>866</v>
+        <v>786</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -8609,10 +8522,10 @@
         <v>268</v>
       </c>
       <c r="E310" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F310" t="s">
-        <v>687</v>
+        <v>607</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -8626,10 +8539,10 @@
         <v>269</v>
       </c>
       <c r="E311" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F311" t="s">
-        <v>687</v>
+        <v>607</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -8643,10 +8556,10 @@
         <v>201</v>
       </c>
       <c r="E312" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F312" t="s">
-        <v>867</v>
+        <v>787</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -8660,13 +8573,13 @@
         <v>293</v>
       </c>
       <c r="E313" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F313" t="s">
-        <v>709</v>
-      </c>
-      <c r="G313" t="s">
-        <v>944</v>
+        <v>629</v>
+      </c>
+      <c r="G313">
+        <v>654122543</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -8680,13 +8593,13 @@
         <v>410</v>
       </c>
       <c r="E314" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="F314" t="s">
-        <v>868</v>
-      </c>
-      <c r="G314" t="s">
-        <v>814</v>
+        <v>788</v>
+      </c>
+      <c r="G314">
+        <v>644054455</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -8700,10 +8613,10 @@
         <v>463</v>
       </c>
       <c r="E315" t="s">
-        <v>544</v>
+        <v>875</v>
       </c>
       <c r="F315" t="s">
-        <v>869</v>
+        <v>789</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -8717,10 +8630,10 @@
         <v>464</v>
       </c>
       <c r="E316" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F316" t="s">
-        <v>870</v>
+        <v>790</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -8734,10 +8647,10 @@
         <v>221</v>
       </c>
       <c r="E317" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F317" t="s">
-        <v>871</v>
+        <v>791</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -8751,10 +8664,10 @@
         <v>465</v>
       </c>
       <c r="E318" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F318" t="s">
-        <v>872</v>
+        <v>792</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -8768,10 +8681,10 @@
         <v>466</v>
       </c>
       <c r="E319" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F319" t="s">
-        <v>873</v>
+        <v>793</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -8785,13 +8698,13 @@
         <v>385</v>
       </c>
       <c r="E320" t="s">
-        <v>536</v>
+        <v>864</v>
       </c>
       <c r="F320" t="s">
-        <v>874</v>
-      </c>
-      <c r="G320" t="s">
-        <v>945</v>
+        <v>794</v>
+      </c>
+      <c r="G320">
+        <v>665405913</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
@@ -8805,10 +8718,10 @@
         <v>467</v>
       </c>
       <c r="E321" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F321" t="s">
-        <v>875</v>
+        <v>795</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -8822,10 +8735,10 @@
         <v>468</v>
       </c>
       <c r="E322" t="s">
-        <v>545</v>
+        <v>858</v>
       </c>
       <c r="F322" t="s">
-        <v>876</v>
+        <v>796</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
@@ -8839,10 +8752,10 @@
         <v>469</v>
       </c>
       <c r="E323" t="s">
-        <v>541</v>
+        <v>874</v>
       </c>
       <c r="F323" t="s">
-        <v>877</v>
+        <v>797</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
@@ -8859,7 +8772,7 @@
         <v>513</v>
       </c>
       <c r="F324" t="s">
-        <v>878</v>
+        <v>798</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
@@ -8873,7 +8786,7 @@
         <v>471</v>
       </c>
       <c r="E325" t="s">
-        <v>555</v>
+        <v>873</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
@@ -8887,10 +8800,10 @@
         <v>472</v>
       </c>
       <c r="E326" t="s">
-        <v>956</v>
+        <v>872</v>
       </c>
       <c r="F326" t="s">
-        <v>879</v>
+        <v>799</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
@@ -8904,10 +8817,10 @@
         <v>473</v>
       </c>
       <c r="E327" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F327" t="s">
-        <v>880</v>
+        <v>800</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
@@ -8921,10 +8834,10 @@
         <v>474</v>
       </c>
       <c r="E328" t="s">
-        <v>588</v>
+        <v>871</v>
       </c>
       <c r="F328" t="s">
-        <v>881</v>
+        <v>801</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
@@ -8938,10 +8851,10 @@
         <v>475</v>
       </c>
       <c r="E329" t="s">
-        <v>522</v>
+        <v>870</v>
       </c>
       <c r="F329" t="s">
-        <v>882</v>
+        <v>802</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
@@ -8955,10 +8868,10 @@
         <v>476</v>
       </c>
       <c r="E330" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F330" t="s">
-        <v>882</v>
+        <v>802</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
@@ -8972,10 +8885,10 @@
         <v>477</v>
       </c>
       <c r="E331" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F331" t="s">
-        <v>883</v>
+        <v>803</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
@@ -8989,10 +8902,10 @@
         <v>478</v>
       </c>
       <c r="E332" t="s">
-        <v>545</v>
+        <v>858</v>
       </c>
       <c r="F332" t="s">
-        <v>884</v>
+        <v>804</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
@@ -9006,13 +8919,13 @@
         <v>261</v>
       </c>
       <c r="E333" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F333" t="s">
-        <v>681</v>
-      </c>
-      <c r="G333" t="s">
-        <v>926</v>
+        <v>601</v>
+      </c>
+      <c r="G333">
+        <v>627345245</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
@@ -9026,10 +8939,10 @@
         <v>479</v>
       </c>
       <c r="E334" t="s">
-        <v>589</v>
+        <v>859</v>
       </c>
       <c r="F334" t="s">
-        <v>885</v>
+        <v>805</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
@@ -9043,10 +8956,10 @@
         <v>349</v>
       </c>
       <c r="E335" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F335" t="s">
-        <v>757</v>
+        <v>677</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
@@ -9060,10 +8973,10 @@
         <v>480</v>
       </c>
       <c r="E336" t="s">
-        <v>590</v>
+        <v>869</v>
       </c>
       <c r="F336" t="s">
-        <v>886</v>
+        <v>806</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
@@ -9077,10 +8990,10 @@
         <v>407</v>
       </c>
       <c r="E337" t="s">
-        <v>577</v>
+        <v>868</v>
       </c>
       <c r="F337" t="s">
-        <v>887</v>
+        <v>807</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
@@ -9094,10 +9007,10 @@
         <v>481</v>
       </c>
       <c r="E338" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F338" t="s">
-        <v>888</v>
+        <v>808</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
@@ -9111,10 +9024,10 @@
         <v>482</v>
       </c>
       <c r="E339" t="s">
-        <v>521</v>
+        <v>867</v>
       </c>
       <c r="F339" t="s">
-        <v>889</v>
+        <v>809</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
@@ -9128,13 +9041,13 @@
         <v>483</v>
       </c>
       <c r="E340" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F340" t="s">
-        <v>890</v>
-      </c>
-      <c r="G340" t="s">
-        <v>946</v>
+        <v>810</v>
+      </c>
+      <c r="G340">
+        <v>623001996</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -9148,13 +9061,13 @@
         <v>484</v>
       </c>
       <c r="E341" t="s">
-        <v>542</v>
+        <v>866</v>
       </c>
       <c r="F341" t="s">
-        <v>891</v>
-      </c>
-      <c r="G341" t="s">
-        <v>947</v>
+        <v>811</v>
+      </c>
+      <c r="G341">
+        <v>686005837</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -9168,10 +9081,10 @@
         <v>485</v>
       </c>
       <c r="E342" t="s">
-        <v>591</v>
+        <v>865</v>
       </c>
       <c r="F342" t="s">
-        <v>892</v>
+        <v>812</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
@@ -9185,10 +9098,10 @@
         <v>486</v>
       </c>
       <c r="E343" t="s">
-        <v>536</v>
+        <v>864</v>
       </c>
       <c r="F343" t="s">
-        <v>893</v>
+        <v>813</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
@@ -9202,10 +9115,10 @@
         <v>487</v>
       </c>
       <c r="E344" t="s">
-        <v>592</v>
+        <v>863</v>
       </c>
       <c r="F344" t="s">
-        <v>894</v>
+        <v>814</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
@@ -9219,10 +9132,10 @@
         <v>488</v>
       </c>
       <c r="E345" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F345" t="s">
-        <v>895</v>
+        <v>815</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
@@ -9236,10 +9149,10 @@
         <v>489</v>
       </c>
       <c r="E346" t="s">
-        <v>528</v>
+        <v>862</v>
       </c>
       <c r="F346" t="s">
-        <v>896</v>
+        <v>816</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
@@ -9253,10 +9166,10 @@
         <v>490</v>
       </c>
       <c r="E347" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="F347" t="s">
-        <v>897</v>
+        <v>817</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
@@ -9270,10 +9183,10 @@
         <v>491</v>
       </c>
       <c r="E348" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F348" t="s">
-        <v>898</v>
+        <v>818</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
@@ -9287,10 +9200,10 @@
         <v>492</v>
       </c>
       <c r="E349" t="s">
-        <v>593</v>
+        <v>861</v>
       </c>
       <c r="F349" t="s">
-        <v>899</v>
+        <v>819</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
@@ -9304,10 +9217,10 @@
         <v>493</v>
       </c>
       <c r="E350" t="s">
-        <v>517</v>
+        <v>860</v>
       </c>
       <c r="F350" t="s">
-        <v>900</v>
+        <v>820</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
@@ -9321,10 +9234,10 @@
         <v>494</v>
       </c>
       <c r="E351" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F351" t="s">
-        <v>643</v>
+        <v>563</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
@@ -9338,10 +9251,10 @@
         <v>495</v>
       </c>
       <c r="E352" t="s">
-        <v>545</v>
+        <v>858</v>
       </c>
       <c r="F352" t="s">
-        <v>901</v>
+        <v>821</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -9355,10 +9268,10 @@
         <v>496</v>
       </c>
       <c r="E353" t="s">
-        <v>589</v>
+        <v>859</v>
       </c>
       <c r="F353" t="s">
-        <v>902</v>
+        <v>822</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -9372,10 +9285,10 @@
         <v>497</v>
       </c>
       <c r="E354" t="s">
-        <v>545</v>
+        <v>858</v>
       </c>
       <c r="F354" t="s">
-        <v>769</v>
+        <v>689</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -9392,7 +9305,7 @@
         <v>513</v>
       </c>
       <c r="F355" t="s">
-        <v>903</v>
+        <v>823</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -9406,10 +9319,10 @@
         <v>499</v>
       </c>
       <c r="E356" t="s">
-        <v>594</v>
+        <v>857</v>
       </c>
       <c r="F356" t="s">
-        <v>904</v>
+        <v>824</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -9423,10 +9336,10 @@
         <v>500</v>
       </c>
       <c r="E357" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="F357" t="s">
-        <v>905</v>
+        <v>825</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -9440,10 +9353,10 @@
         <v>501</v>
       </c>
       <c r="E358" t="s">
-        <v>516</v>
+        <v>855</v>
       </c>
       <c r="F358" t="s">
-        <v>906</v>
+        <v>826</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -9457,10 +9370,10 @@
         <v>502</v>
       </c>
       <c r="E359" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F359" t="s">
-        <v>907</v>
+        <v>827</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -9474,10 +9387,10 @@
         <v>458</v>
       </c>
       <c r="E360" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F360" t="s">
-        <v>908</v>
+        <v>828</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -9491,10 +9404,10 @@
         <v>503</v>
       </c>
       <c r="E361" t="s">
-        <v>514</v>
+        <v>854</v>
       </c>
       <c r="F361" t="s">
-        <v>909</v>
+        <v>829</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -9508,10 +9421,10 @@
         <v>504</v>
       </c>
       <c r="E362" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F362" t="s">
-        <v>910</v>
+        <v>830</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -9525,10 +9438,10 @@
         <v>347</v>
       </c>
       <c r="E363" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F363" t="s">
-        <v>755</v>
+        <v>675</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -9542,10 +9455,10 @@
         <v>505</v>
       </c>
       <c r="E364" t="s">
-        <v>595</v>
+        <v>853</v>
       </c>
       <c r="F364" t="s">
-        <v>911</v>
+        <v>831</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -9559,10 +9472,10 @@
         <v>506</v>
       </c>
       <c r="E365" t="s">
-        <v>523</v>
+        <v>852</v>
       </c>
       <c r="F365" t="s">
-        <v>912</v>
+        <v>832</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -9576,10 +9489,10 @@
         <v>320</v>
       </c>
       <c r="E366" t="s">
-        <v>585</v>
+        <v>851</v>
       </c>
       <c r="F366" t="s">
-        <v>913</v>
+        <v>833</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -9593,10 +9506,10 @@
         <v>507</v>
       </c>
       <c r="E367" t="s">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="F367" t="s">
-        <v>914</v>
+        <v>834</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -9610,10 +9523,10 @@
         <v>508</v>
       </c>
       <c r="E368" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="F368" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -9630,7 +9543,7 @@
         <v>513</v>
       </c>
       <c r="F369" t="s">
-        <v>915</v>
+        <v>835</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -9644,10 +9557,10 @@
         <v>510</v>
       </c>
       <c r="E370" t="s">
-        <v>529</v>
+        <v>848</v>
       </c>
       <c r="F370" t="s">
-        <v>916</v>
+        <v>836</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -9661,10 +9574,10 @@
         <v>511</v>
       </c>
       <c r="E371" t="s">
-        <v>551</v>
+        <v>847</v>
       </c>
       <c r="F371" t="s">
-        <v>917</v>
+        <v>837</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -9678,10 +9591,10 @@
         <v>512</v>
       </c>
       <c r="E372" t="s">
-        <v>534</v>
+        <v>846</v>
       </c>
       <c r="F372" t="s">
-        <v>918</v>
+        <v>838</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
